--- a/Factorizacion.xlsx
+++ b/Factorizacion.xlsx
@@ -16,12 +16,1152 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="382">
   <si>
     <t>cholesky</t>
   </si>
   <si>
     <t>gauss</t>
+  </si>
+  <si>
+    <t>0.002</t>
+  </si>
+  <si>
+    <t>0.001</t>
+  </si>
+  <si>
+    <t>0.003</t>
+  </si>
+  <si>
+    <t>0.004</t>
+  </si>
+  <si>
+    <t>0.005</t>
+  </si>
+  <si>
+    <t>0.007</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>0.013</t>
+  </si>
+  <si>
+    <t>0.018</t>
+  </si>
+  <si>
+    <t>0.022</t>
+  </si>
+  <si>
+    <t>0.028</t>
+  </si>
+  <si>
+    <t>0.035</t>
+  </si>
+  <si>
+    <t>0.043</t>
+  </si>
+  <si>
+    <t>0.052</t>
+  </si>
+  <si>
+    <t>0.063</t>
+  </si>
+  <si>
+    <t>0.075</t>
+  </si>
+  <si>
+    <t>0.086</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>0.116</t>
+  </si>
+  <si>
+    <t>0.133</t>
+  </si>
+  <si>
+    <t>0.152</t>
+  </si>
+  <si>
+    <t>0.172</t>
+  </si>
+  <si>
+    <t>0.193</t>
+  </si>
+  <si>
+    <t>0.218</t>
+  </si>
+  <si>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>0.057</t>
+  </si>
+  <si>
+    <t>0.064</t>
+  </si>
+  <si>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>0.077</t>
+  </si>
+  <si>
+    <t>0.084</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>0.101</t>
+  </si>
+  <si>
+    <t>0.108</t>
+  </si>
+  <si>
+    <t>0.118</t>
+  </si>
+  <si>
+    <t>0.127</t>
+  </si>
+  <si>
+    <t>0.138</t>
+  </si>
+  <si>
+    <t>0.148</t>
+  </si>
+  <si>
+    <t>0.161</t>
+  </si>
+  <si>
+    <t>0.174</t>
+  </si>
+  <si>
+    <t>0.184</t>
+  </si>
+  <si>
+    <t>0.197</t>
+  </si>
+  <si>
+    <t>0.211</t>
+  </si>
+  <si>
+    <t>0.225</t>
+  </si>
+  <si>
+    <t>0.243</t>
+  </si>
+  <si>
+    <t>0.257</t>
+  </si>
+  <si>
+    <t>0.273</t>
+  </si>
+  <si>
+    <t>0.289</t>
+  </si>
+  <si>
+    <t>0.309</t>
+  </si>
+  <si>
+    <t>0.358</t>
+  </si>
+  <si>
+    <t>0.344</t>
+  </si>
+  <si>
+    <t>0.364</t>
+  </si>
+  <si>
+    <t>0.411</t>
+  </si>
+  <si>
+    <t>0.737</t>
+  </si>
+  <si>
+    <t>0.475</t>
+  </si>
+  <si>
+    <t>0.473</t>
+  </si>
+  <si>
+    <t>0.498</t>
+  </si>
+  <si>
+    <t>0.532</t>
+  </si>
+  <si>
+    <t>0.549</t>
+  </si>
+  <si>
+    <t>0.577</t>
+  </si>
+  <si>
+    <t>0.608</t>
+  </si>
+  <si>
+    <t>0.639</t>
+  </si>
+  <si>
+    <t>0.669</t>
+  </si>
+  <si>
+    <t>0.703</t>
+  </si>
+  <si>
+    <t>0.733</t>
+  </si>
+  <si>
+    <t>0.769</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>0.834</t>
+  </si>
+  <si>
+    <t>0.876</t>
+  </si>
+  <si>
+    <t>0.913</t>
+  </si>
+  <si>
+    <t>0.945</t>
+  </si>
+  <si>
+    <t>0.984</t>
+  </si>
+  <si>
+    <t>1.11</t>
+  </si>
+  <si>
+    <t>1.87</t>
+  </si>
+  <si>
+    <t>1.93</t>
+  </si>
+  <si>
+    <t>3.82</t>
+  </si>
+  <si>
+    <t>4.21</t>
+  </si>
+  <si>
+    <t>4.42</t>
+  </si>
+  <si>
+    <t>4.64</t>
+  </si>
+  <si>
+    <t>5.6</t>
+  </si>
+  <si>
+    <t>5.89</t>
+  </si>
+  <si>
+    <t>6.94</t>
+  </si>
+  <si>
+    <t>8.34</t>
+  </si>
+  <si>
+    <t>8.5</t>
+  </si>
+  <si>
+    <t>9.19</t>
+  </si>
+  <si>
+    <t>10.23</t>
+  </si>
+  <si>
+    <t>11.23</t>
+  </si>
+  <si>
+    <t>12.47</t>
+  </si>
+  <si>
+    <t>13.34</t>
+  </si>
+  <si>
+    <t>18.6</t>
+  </si>
+  <si>
+    <t>22.82</t>
+  </si>
+  <si>
+    <t>24.43</t>
+  </si>
+  <si>
+    <t>32.93</t>
+  </si>
+  <si>
+    <t>44.18</t>
+  </si>
+  <si>
+    <t>59.5</t>
+  </si>
+  <si>
+    <t>69.09</t>
+  </si>
+  <si>
+    <t>69.91</t>
+  </si>
+  <si>
+    <t>72.63</t>
+  </si>
+  <si>
+    <t>92.35</t>
+  </si>
+  <si>
+    <t>97.26</t>
+  </si>
+  <si>
+    <t>104.96</t>
+  </si>
+  <si>
+    <t>106.29</t>
+  </si>
+  <si>
+    <t>106.79</t>
+  </si>
+  <si>
+    <t>108.46</t>
+  </si>
+  <si>
+    <t>110.04</t>
+  </si>
+  <si>
+    <t>116.87</t>
+  </si>
+  <si>
+    <t>141.16</t>
+  </si>
+  <si>
+    <t>150.73</t>
+  </si>
+  <si>
+    <t>211.48</t>
+  </si>
+  <si>
+    <t>211.08</t>
+  </si>
+  <si>
+    <t>279.69</t>
+  </si>
+  <si>
+    <t>285.02</t>
+  </si>
+  <si>
+    <t>315.97</t>
+  </si>
+  <si>
+    <t>320.2</t>
+  </si>
+  <si>
+    <t>351.94</t>
+  </si>
+  <si>
+    <t>355.72</t>
+  </si>
+  <si>
+    <t>363.72</t>
+  </si>
+  <si>
+    <t>456.17</t>
+  </si>
+  <si>
+    <t>465.58</t>
+  </si>
+  <si>
+    <t>497.13</t>
+  </si>
+  <si>
+    <t>505.04</t>
+  </si>
+  <si>
+    <t>509.99</t>
+  </si>
+  <si>
+    <t>512.45</t>
+  </si>
+  <si>
+    <t>530.81</t>
+  </si>
+  <si>
+    <t>633.06</t>
+  </si>
+  <si>
+    <t>635.46</t>
+  </si>
+  <si>
+    <t>708.03</t>
+  </si>
+  <si>
+    <t>756.21</t>
+  </si>
+  <si>
+    <t>768.27</t>
+  </si>
+  <si>
+    <t>788.65</t>
+  </si>
+  <si>
+    <t>867.53</t>
+  </si>
+  <si>
+    <t>1092.7</t>
+  </si>
+  <si>
+    <t>897.96</t>
+  </si>
+  <si>
+    <t>908.81</t>
+  </si>
+  <si>
+    <t>912.85</t>
+  </si>
+  <si>
+    <t>1002.47</t>
+  </si>
+  <si>
+    <t>1034.02</t>
+  </si>
+  <si>
+    <t>1009.83</t>
+  </si>
+  <si>
+    <t>1013.7</t>
+  </si>
+  <si>
+    <t>1018.83</t>
+  </si>
+  <si>
+    <t>1021.15</t>
+  </si>
+  <si>
+    <t>1026.07</t>
+  </si>
+  <si>
+    <t>1030.04</t>
+  </si>
+  <si>
+    <t>1034.32</t>
+  </si>
+  <si>
+    <t>1037.33</t>
+  </si>
+  <si>
+    <t>1042.5</t>
+  </si>
+  <si>
+    <t>1045.6</t>
+  </si>
+  <si>
+    <t>1050.43</t>
+  </si>
+  <si>
+    <t>1053.55</t>
+  </si>
+  <si>
+    <t>1058.72</t>
+  </si>
+  <si>
+    <t>1062.48</t>
+  </si>
+  <si>
+    <t>1067.46</t>
+  </si>
+  <si>
+    <t>1069.88</t>
+  </si>
+  <si>
+    <t>1075.55</t>
+  </si>
+  <si>
+    <t>1079.3</t>
+  </si>
+  <si>
+    <t>1084.08</t>
+  </si>
+  <si>
+    <t>1087.16</t>
+  </si>
+  <si>
+    <t>1092.58</t>
+  </si>
+  <si>
+    <t>1096.04</t>
+  </si>
+  <si>
+    <t>1133.9</t>
+  </si>
+  <si>
+    <t>1104.84</t>
+  </si>
+  <si>
+    <t>1108.15</t>
+  </si>
+  <si>
+    <t>1113.14</t>
+  </si>
+  <si>
+    <t>1116.36</t>
+  </si>
+  <si>
+    <t>1121.66</t>
+  </si>
+  <si>
+    <t>1125.67</t>
+  </si>
+  <si>
+    <t>1130.39</t>
+  </si>
+  <si>
+    <t>1134.68</t>
+  </si>
+  <si>
+    <t>1137.95</t>
+  </si>
+  <si>
+    <t>1142.38</t>
+  </si>
+  <si>
+    <t>1146.7</t>
+  </si>
+  <si>
+    <t>1151.99</t>
+  </si>
+  <si>
+    <t>1156.06</t>
+  </si>
+  <si>
+    <t>1161.57</t>
+  </si>
+  <si>
+    <t>1164.88</t>
+  </si>
+  <si>
+    <t>1169.59</t>
+  </si>
+  <si>
+    <t>1173.83</t>
+  </si>
+  <si>
+    <t>1178.99</t>
+  </si>
+  <si>
+    <t>1182.22</t>
+  </si>
+  <si>
+    <t>1187.8</t>
+  </si>
+  <si>
+    <t>1191.94</t>
+  </si>
+  <si>
+    <t>1196.38</t>
+  </si>
+  <si>
+    <t>1200.56</t>
+  </si>
+  <si>
+    <t>1204.53</t>
+  </si>
+  <si>
+    <t>1209.19</t>
+  </si>
+  <si>
+    <t>1213.99</t>
+  </si>
+  <si>
+    <t>1217.8</t>
+  </si>
+  <si>
+    <t>1221.86</t>
+  </si>
+  <si>
+    <t>1227.42</t>
+  </si>
+  <si>
+    <t>1232.01</t>
+  </si>
+  <si>
+    <t>1236.92</t>
+  </si>
+  <si>
+    <t>1241.27</t>
+  </si>
+  <si>
+    <t>1245.64</t>
+  </si>
+  <si>
+    <t>1249.73</t>
+  </si>
+  <si>
+    <t>1254.97</t>
+  </si>
+  <si>
+    <t>1259.53</t>
+  </si>
+  <si>
+    <t>1263.07</t>
+  </si>
+  <si>
+    <t>1269.12</t>
+  </si>
+  <si>
+    <t>1273.35</t>
+  </si>
+  <si>
+    <t>1278.32</t>
+  </si>
+  <si>
+    <t>1282.37</t>
+  </si>
+  <si>
+    <t>1287.87</t>
+  </si>
+  <si>
+    <t>1292.49</t>
+  </si>
+  <si>
+    <t>1296.11</t>
+  </si>
+  <si>
+    <t>1301.95</t>
+  </si>
+  <si>
+    <t>1306.18</t>
+  </si>
+  <si>
+    <t>1311.39</t>
+  </si>
+  <si>
+    <t>1314.73</t>
+  </si>
+  <si>
+    <t>1320.61</t>
+  </si>
+  <si>
+    <t>1325.21</t>
+  </si>
+  <si>
+    <t>1330.53</t>
+  </si>
+  <si>
+    <t>1335.02</t>
+  </si>
+  <si>
+    <t>1339.59</t>
+  </si>
+  <si>
+    <t>1344.71</t>
+  </si>
+  <si>
+    <t>1349.62</t>
+  </si>
+  <si>
+    <t>1355.75</t>
+  </si>
+  <si>
+    <t>1359.8</t>
+  </si>
+  <si>
+    <t>1363.81</t>
+  </si>
+  <si>
+    <t>1368.98</t>
+  </si>
+  <si>
+    <t>1374.66</t>
+  </si>
+  <si>
+    <t>1379.37</t>
+  </si>
+  <si>
+    <t>1384.17</t>
+  </si>
+  <si>
+    <t>1389.68</t>
+  </si>
+  <si>
+    <t>1395.15</t>
+  </si>
+  <si>
+    <t>1399.03</t>
+  </si>
+  <si>
+    <t>1407.42</t>
+  </si>
+  <si>
+    <t>1436.25</t>
+  </si>
+  <si>
+    <t>1414.03</t>
+  </si>
+  <si>
+    <t>1418.83</t>
+  </si>
+  <si>
+    <t>1424.15</t>
+  </si>
+  <si>
+    <t>1429.4</t>
+  </si>
+  <si>
+    <t>1439.35</t>
+  </si>
+  <si>
+    <t>1450.99</t>
+  </si>
+  <si>
+    <t>1444.92</t>
+  </si>
+  <si>
+    <t>1451.45</t>
+  </si>
+  <si>
+    <t>1453.63</t>
+  </si>
+  <si>
+    <t>1459.68</t>
+  </si>
+  <si>
+    <t>1463.38</t>
+  </si>
+  <si>
+    <t>1469.23</t>
+  </si>
+  <si>
+    <t>1474.44</t>
+  </si>
+  <si>
+    <t>1479.59</t>
+  </si>
+  <si>
+    <t>1497.29</t>
+  </si>
+  <si>
+    <t>1489.87</t>
+  </si>
+  <si>
+    <t>1495.7</t>
+  </si>
+  <si>
+    <t>1501.58</t>
+  </si>
+  <si>
+    <t>1505.4</t>
+  </si>
+  <si>
+    <t>1510.92</t>
+  </si>
+  <si>
+    <t>1516.41</t>
+  </si>
+  <si>
+    <t>1521.21</t>
+  </si>
+  <si>
+    <t>1526.9</t>
+  </si>
+  <si>
+    <t>1532.3</t>
+  </si>
+  <si>
+    <t>1537.35</t>
+  </si>
+  <si>
+    <t>1541.88</t>
+  </si>
+  <si>
+    <t>1547.98</t>
+  </si>
+  <si>
+    <t>1554.26</t>
+  </si>
+  <si>
+    <t>1558.82</t>
+  </si>
+  <si>
+    <t>1563.71</t>
+  </si>
+  <si>
+    <t>1570.14</t>
+  </si>
+  <si>
+    <t>1574.34</t>
+  </si>
+  <si>
+    <t>1579.86</t>
+  </si>
+  <si>
+    <t>1586.21</t>
+  </si>
+  <si>
+    <t>1590.63</t>
+  </si>
+  <si>
+    <t>1595.62</t>
+  </si>
+  <si>
+    <t>1603.15</t>
+  </si>
+  <si>
+    <t>1608.29</t>
+  </si>
+  <si>
+    <t>1612.24</t>
+  </si>
+  <si>
+    <t>1618.56</t>
+  </si>
+  <si>
+    <t>1624.82</t>
+  </si>
+  <si>
+    <t>1629.17</t>
+  </si>
+  <si>
+    <t>1634.87</t>
+  </si>
+  <si>
+    <t>1641.04</t>
+  </si>
+  <si>
+    <t>1645.4</t>
+  </si>
+  <si>
+    <t>1651.36</t>
+  </si>
+  <si>
+    <t>1655.65</t>
+  </si>
+  <si>
+    <t>1662.07</t>
+  </si>
+  <si>
+    <t>1667.6</t>
+  </si>
+  <si>
+    <t>1673.3</t>
+  </si>
+  <si>
+    <t>1678.56</t>
+  </si>
+  <si>
+    <t>1684.63</t>
+  </si>
+  <si>
+    <t>1689.98</t>
+  </si>
+  <si>
+    <t>1695.61</t>
+  </si>
+  <si>
+    <t>1702.57</t>
+  </si>
+  <si>
+    <t>1707.04</t>
+  </si>
+  <si>
+    <t>1712.24</t>
+  </si>
+  <si>
+    <t>1718.16</t>
+  </si>
+  <si>
+    <t>1724.16</t>
+  </si>
+  <si>
+    <t>1730.39</t>
+  </si>
+  <si>
+    <t>1736.18</t>
+  </si>
+  <si>
+    <t>1741.58</t>
+  </si>
+  <si>
+    <t>1753.83</t>
+  </si>
+  <si>
+    <t>1758.81</t>
+  </si>
+  <si>
+    <t>1764.85</t>
+  </si>
+  <si>
+    <t>1770.24</t>
+  </si>
+  <si>
+    <t>1777.51</t>
+  </si>
+  <si>
+    <t>1782.12</t>
+  </si>
+  <si>
+    <t>1786.67</t>
+  </si>
+  <si>
+    <t>1793.89</t>
+  </si>
+  <si>
+    <t>1800.74</t>
+  </si>
+  <si>
+    <t>1806.55</t>
+  </si>
+  <si>
+    <t>1811.33</t>
+  </si>
+  <si>
+    <t>1818.37</t>
+  </si>
+  <si>
+    <t>1823.58</t>
+  </si>
+  <si>
+    <t>1829.33</t>
+  </si>
+  <si>
+    <t>1835.76</t>
+  </si>
+  <si>
+    <t>1841.65</t>
+  </si>
+  <si>
+    <t>1848.3</t>
+  </si>
+  <si>
+    <t>1854.26</t>
+  </si>
+  <si>
+    <t>1859.96</t>
+  </si>
+  <si>
+    <t>1866.16</t>
+  </si>
+  <si>
+    <t>1871.78</t>
+  </si>
+  <si>
+    <t>1876.84</t>
+  </si>
+  <si>
+    <t>1883.01</t>
+  </si>
+  <si>
+    <t>1888.89</t>
+  </si>
+  <si>
+    <t>1894.74</t>
+  </si>
+  <si>
+    <t>1902.4</t>
+  </si>
+  <si>
+    <t>1907.97</t>
+  </si>
+  <si>
+    <t>1912.89</t>
+  </si>
+  <si>
+    <t>1920.18</t>
+  </si>
+  <si>
+    <t>1925.64</t>
+  </si>
+  <si>
+    <t>1931.8</t>
+  </si>
+  <si>
+    <t>1938.86</t>
+  </si>
+  <si>
+    <t>1944.96</t>
+  </si>
+  <si>
+    <t>1950.08</t>
+  </si>
+  <si>
+    <t>1957.37</t>
+  </si>
+  <si>
+    <t>1963.73</t>
+  </si>
+  <si>
+    <t>1969.49</t>
+  </si>
+  <si>
+    <t>1975.02</t>
+  </si>
+  <si>
+    <t>1982.92</t>
+  </si>
+  <si>
+    <t>1988.23</t>
+  </si>
+  <si>
+    <t>1995.31</t>
+  </si>
+  <si>
+    <t>2008.06</t>
+  </si>
+  <si>
+    <t>2013.8</t>
+  </si>
+  <si>
+    <t>2020.12</t>
+  </si>
+  <si>
+    <t>2026.99</t>
+  </si>
+  <si>
+    <t>2034.44</t>
+  </si>
+  <si>
+    <t>2039.27</t>
+  </si>
+  <si>
+    <t>2045.11</t>
+  </si>
+  <si>
+    <t>2052.98</t>
+  </si>
+  <si>
+    <t>2059.28</t>
+  </si>
+  <si>
+    <t>2065.01</t>
+  </si>
+  <si>
+    <t>2070.59</t>
+  </si>
+  <si>
+    <t>2078.44</t>
+  </si>
+  <si>
+    <t>2084.65</t>
+  </si>
+  <si>
+    <t>2090.78</t>
+  </si>
+  <si>
+    <t>2096.3</t>
+  </si>
+  <si>
+    <t>2104.79</t>
+  </si>
+  <si>
+    <t>2110.25</t>
+  </si>
+  <si>
+    <t>2116.78</t>
+  </si>
+  <si>
+    <t>2123.05</t>
+  </si>
+  <si>
+    <t>2129.48</t>
+  </si>
+  <si>
+    <t>2136.26</t>
+  </si>
+  <si>
+    <t>2143.31</t>
+  </si>
+  <si>
+    <t>2150.3</t>
+  </si>
+  <si>
+    <t>2156.78</t>
+  </si>
+  <si>
+    <t>2163.16</t>
+  </si>
+  <si>
+    <t>2169.61</t>
+  </si>
+  <si>
+    <t>2177.25</t>
+  </si>
+  <si>
+    <t>2184.16</t>
+  </si>
+  <si>
+    <t>2190.1</t>
+  </si>
+  <si>
+    <t>2213.47</t>
+  </si>
+  <si>
+    <t>2245.64</t>
+  </si>
+  <si>
+    <t>2215.18</t>
+  </si>
+  <si>
+    <t>2216.53</t>
+  </si>
+  <si>
+    <t>2223.57</t>
+  </si>
+  <si>
+    <t>2230.05</t>
+  </si>
+  <si>
+    <t>2237.64</t>
+  </si>
+  <si>
+    <t>2243.17</t>
+  </si>
+  <si>
+    <t>2250.4</t>
+  </si>
+  <si>
+    <t>2258.97</t>
+  </si>
+  <si>
+    <t>2325.53</t>
+  </si>
+  <si>
+    <t>2299.38</t>
+  </si>
+  <si>
+    <t>2310.77</t>
+  </si>
+  <si>
+    <t>2415.42</t>
+  </si>
+  <si>
+    <t>2753.52</t>
+  </si>
+  <si>
+    <t>2298.06</t>
+  </si>
+  <si>
+    <t>2306.22</t>
+  </si>
+  <si>
+    <t>2312.41</t>
+  </si>
+  <si>
+    <t>2318.95</t>
+  </si>
+  <si>
+    <t>2324.7</t>
+  </si>
+  <si>
+    <t>2332.71</t>
+  </si>
+  <si>
+    <t>2340.19</t>
   </si>
 </sst>
 </file>
@@ -1469,6 +2609,363 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-AR"/>
+                  <a:t>Tiempo (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="136323456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:dispUnits>
+          <c:builtInUnit val="thousands"/>
+        </c:dispUnits>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-AR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="105"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="5"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-AR"/>
+              <a:t>Factorización de matrices</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Cholesky</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$A$16:$A$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$B$16:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>3.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.8999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.46E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.8299999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.0899999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3659</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0">
+                  <c:v>2.6917</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0">
+                  <c:v>20.5078</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0">
+                  <c:v>161.45699999999999</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0">
+                  <c:v>1291.8699999999999</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0">
+                  <c:v>10329.4</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0">
+                  <c:v>81291.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Gauss</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$A$16:$A$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$C$16:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>8.9999999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.5999999999999992E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.3600000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13089999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.69879999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="#,##0">
+                  <c:v>5.1513999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="#,##0">
+                  <c:v>40.020600000000002</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0">
+                  <c:v>324.68</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0">
+                  <c:v>2626.99</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0">
+                  <c:v>20547.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>163088</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="13756672"/>
+        <c:axId val="48206208"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="13756672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Dimensión de la matriz</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="48206208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1024"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="48206208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-AR"/>
                   <a:t>Tiempo (m)</a:t>
                 </a:r>
               </a:p>
@@ -1481,7 +2978,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136323456"/>
+        <c:crossAx val="13756672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -1629,6 +3126,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="14 Gráfico"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1926,8 +3455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2225,12 +3754,8015 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A978" workbookViewId="0">
+      <selection sqref="A1:A1000"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>47</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>48</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>50</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>51</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>52</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>53</v>
+      </c>
+      <c r="B53" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>54</v>
+      </c>
+      <c r="B54" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>55</v>
+      </c>
+      <c r="B55" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>56</v>
+      </c>
+      <c r="B56" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>57</v>
+      </c>
+      <c r="B57" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>58</v>
+      </c>
+      <c r="B58" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>59</v>
+      </c>
+      <c r="B59" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>60</v>
+      </c>
+      <c r="B60" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>61</v>
+      </c>
+      <c r="B61" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>62</v>
+      </c>
+      <c r="B62" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>63</v>
+      </c>
+      <c r="B63" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>64</v>
+      </c>
+      <c r="B64" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>65</v>
+      </c>
+      <c r="B65" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>66</v>
+      </c>
+      <c r="B66" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>67</v>
+      </c>
+      <c r="B67" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>68</v>
+      </c>
+      <c r="B68" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>69</v>
+      </c>
+      <c r="B69" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>70</v>
+      </c>
+      <c r="B70" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>71</v>
+      </c>
+      <c r="B71" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>72</v>
+      </c>
+      <c r="B72" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>73</v>
+      </c>
+      <c r="B73" s="1">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>74</v>
+      </c>
+      <c r="B74" s="1">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>75</v>
+      </c>
+      <c r="B75" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>76</v>
+      </c>
+      <c r="B76" s="1">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>77</v>
+      </c>
+      <c r="B77" s="1">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>78</v>
+      </c>
+      <c r="B78" s="1">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>79</v>
+      </c>
+      <c r="B79" s="1">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>80</v>
+      </c>
+      <c r="B80" s="1">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>81</v>
+      </c>
+      <c r="B81" s="1">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>82</v>
+      </c>
+      <c r="B82" s="1">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>83</v>
+      </c>
+      <c r="B83" s="1">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>84</v>
+      </c>
+      <c r="B84" s="1">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>85</v>
+      </c>
+      <c r="B85" s="1">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>86</v>
+      </c>
+      <c r="B86" s="1">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>87</v>
+      </c>
+      <c r="B87" s="1">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>88</v>
+      </c>
+      <c r="B88" s="1">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>89</v>
+      </c>
+      <c r="B89" s="1">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>90</v>
+      </c>
+      <c r="B90" s="1">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>91</v>
+      </c>
+      <c r="B91" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>92</v>
+      </c>
+      <c r="B92" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>93</v>
+      </c>
+      <c r="B93" s="1">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>94</v>
+      </c>
+      <c r="B94" s="1">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>95</v>
+      </c>
+      <c r="B95" s="1">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>96</v>
+      </c>
+      <c r="B96" s="1">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>97</v>
+      </c>
+      <c r="B97" s="1">
+        <v>2255</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>98</v>
+      </c>
+      <c r="B98" s="1">
+        <v>2329</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>99</v>
+      </c>
+      <c r="B99" s="1">
+        <v>2394</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>100</v>
+      </c>
+      <c r="B100" s="1">
+        <v>2524</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>101</v>
+      </c>
+      <c r="B101" s="1">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>102</v>
+      </c>
+      <c r="B102" s="1">
+        <v>2611</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>103</v>
+      </c>
+      <c r="B103" s="1">
+        <v>2705</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>104</v>
+      </c>
+      <c r="B104" s="1">
+        <v>2778</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>105</v>
+      </c>
+      <c r="B105" s="1">
+        <v>2859</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>106</v>
+      </c>
+      <c r="B106" s="1">
+        <v>2931</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>107</v>
+      </c>
+      <c r="B107" s="1">
+        <v>3012</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>108</v>
+      </c>
+      <c r="B108" s="1">
+        <v>3102</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>109</v>
+      </c>
+      <c r="B109" s="1">
+        <v>3167</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <v>110</v>
+      </c>
+      <c r="B110" s="1">
+        <v>3275</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>111</v>
+      </c>
+      <c r="B111" s="1">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>112</v>
+      </c>
+      <c r="B112" s="1">
+        <v>3443</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>113</v>
+      </c>
+      <c r="B113" s="1">
+        <v>3525</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <v>114</v>
+      </c>
+      <c r="B114" s="1">
+        <v>3632</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <v>115</v>
+      </c>
+      <c r="B115" s="1">
+        <v>3722</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116">
+        <v>116</v>
+      </c>
+      <c r="B116" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117">
+        <v>117</v>
+      </c>
+      <c r="B117" s="1">
+        <v>3942</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <v>118</v>
+      </c>
+      <c r="B118" s="1">
+        <v>4007</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119">
+        <v>119</v>
+      </c>
+      <c r="B119" s="1">
+        <v>4125</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120">
+        <v>120</v>
+      </c>
+      <c r="B120" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121">
+        <v>121</v>
+      </c>
+      <c r="B121" s="1">
+        <v>4335</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122">
+        <v>122</v>
+      </c>
+      <c r="B122" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123">
+        <v>123</v>
+      </c>
+      <c r="B123" s="1">
+        <v>4545</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124">
+        <v>124</v>
+      </c>
+      <c r="B124" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125">
+        <v>125</v>
+      </c>
+      <c r="B125" s="1">
+        <v>4764</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126">
+        <v>126</v>
+      </c>
+      <c r="B126" s="1">
+        <v>4855</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127">
+        <v>127</v>
+      </c>
+      <c r="B127" s="1">
+        <v>4995</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128">
+        <v>128</v>
+      </c>
+      <c r="B128" s="1">
+        <v>5094</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129">
+        <v>129</v>
+      </c>
+      <c r="B129" s="1">
+        <v>5224</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130">
+        <v>130</v>
+      </c>
+      <c r="B130" s="1">
+        <v>5341</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A131">
+        <v>131</v>
+      </c>
+      <c r="B131" s="1">
+        <v>5467</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132">
+        <v>132</v>
+      </c>
+      <c r="B132" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133">
+        <v>133</v>
+      </c>
+      <c r="B133" s="1">
+        <v>5734</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A134">
+        <v>134</v>
+      </c>
+      <c r="B134" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A135">
+        <v>135</v>
+      </c>
+      <c r="B135" s="1">
+        <v>5958</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A136">
+        <v>136</v>
+      </c>
+      <c r="B136" s="1">
+        <v>6111</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A137">
+        <v>137</v>
+      </c>
+      <c r="B137" s="1">
+        <v>6252</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A138">
+        <v>138</v>
+      </c>
+      <c r="B138" s="1">
+        <v>6399</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A139">
+        <v>139</v>
+      </c>
+      <c r="B139" s="1">
+        <v>6522</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A140">
+        <v>140</v>
+      </c>
+      <c r="B140" s="1">
+        <v>6688</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A141">
+        <v>141</v>
+      </c>
+      <c r="B141" s="1">
+        <v>6812</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A142">
+        <v>142</v>
+      </c>
+      <c r="B142" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A143">
+        <v>143</v>
+      </c>
+      <c r="B143" s="1">
+        <v>7085</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A144">
+        <v>144</v>
+      </c>
+      <c r="B144" s="1">
+        <v>7255</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A145">
+        <v>145</v>
+      </c>
+      <c r="B145" s="1">
+        <v>7398</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A146">
+        <v>146</v>
+      </c>
+      <c r="B146" s="1">
+        <v>7519</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A147">
+        <v>147</v>
+      </c>
+      <c r="B147" s="1">
+        <v>7672</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A148">
+        <v>148</v>
+      </c>
+      <c r="B148" s="1">
+        <v>7851</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A149">
+        <v>149</v>
+      </c>
+      <c r="B149" s="1">
+        <v>8012</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A150">
+        <v>150</v>
+      </c>
+      <c r="B150" s="1">
+        <v>8183</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A151">
+        <v>151</v>
+      </c>
+      <c r="B151" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A152">
+        <v>152</v>
+      </c>
+      <c r="B152" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A153">
+        <v>153</v>
+      </c>
+      <c r="B153" s="1">
+        <v>8666</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A154">
+        <v>154</v>
+      </c>
+      <c r="B154" s="1">
+        <v>8869</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A155">
+        <v>155</v>
+      </c>
+      <c r="B155" s="1">
+        <v>9009</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A156">
+        <v>156</v>
+      </c>
+      <c r="B156" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A157">
+        <v>157</v>
+      </c>
+      <c r="B157" s="1">
+        <v>9336</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A158">
+        <v>158</v>
+      </c>
+      <c r="B158" s="1">
+        <v>9523</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A159">
+        <v>159</v>
+      </c>
+      <c r="B159" s="1">
+        <v>9699</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A160">
+        <v>160</v>
+      </c>
+      <c r="B160" s="1">
+        <v>9885</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A161">
+        <v>161</v>
+      </c>
+      <c r="B161" s="1">
+        <v>10071</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A162">
+        <v>162</v>
+      </c>
+      <c r="B162" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A163">
+        <v>163</v>
+      </c>
+      <c r="B163" s="1">
+        <v>10455</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A164">
+        <v>164</v>
+      </c>
+      <c r="B164" s="1">
+        <v>10627</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A165">
+        <v>165</v>
+      </c>
+      <c r="B165" s="1">
+        <v>10819</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A166">
+        <v>166</v>
+      </c>
+      <c r="B166" s="1">
+        <v>11112</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A167">
+        <v>167</v>
+      </c>
+      <c r="B167" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A168">
+        <v>168</v>
+      </c>
+      <c r="B168" s="1">
+        <v>11487</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A169">
+        <v>169</v>
+      </c>
+      <c r="B169" s="1">
+        <v>11655</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A170">
+        <v>170</v>
+      </c>
+      <c r="B170" s="1">
+        <v>11812</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A171">
+        <v>171</v>
+      </c>
+      <c r="B171" s="1">
+        <v>12031</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A172">
+        <v>172</v>
+      </c>
+      <c r="B172" s="1">
+        <v>12255</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A173">
+        <v>173</v>
+      </c>
+      <c r="B173" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A174">
+        <v>174</v>
+      </c>
+      <c r="B174" s="1">
+        <v>12987</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A175">
+        <v>175</v>
+      </c>
+      <c r="B175" s="1">
+        <v>13011</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A176">
+        <v>176</v>
+      </c>
+      <c r="B176" s="1">
+        <v>13139</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A177">
+        <v>177</v>
+      </c>
+      <c r="B177" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A178">
+        <v>178</v>
+      </c>
+      <c r="B178" s="1">
+        <v>13587</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A179">
+        <v>179</v>
+      </c>
+      <c r="B179" s="1">
+        <v>13817</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A180">
+        <v>180</v>
+      </c>
+      <c r="B180" s="1">
+        <v>14051</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A181">
+        <v>181</v>
+      </c>
+      <c r="B181" s="1">
+        <v>14267</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A182">
+        <v>182</v>
+      </c>
+      <c r="B182" s="1">
+        <v>14495</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A183">
+        <v>183</v>
+      </c>
+      <c r="B183" s="1">
+        <v>14734</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A184">
+        <v>184</v>
+      </c>
+      <c r="B184" s="1">
+        <v>14974</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A185">
+        <v>185</v>
+      </c>
+      <c r="B185" s="1">
+        <v>15219</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A186">
+        <v>186</v>
+      </c>
+      <c r="B186" s="1">
+        <v>15573</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A187">
+        <v>187</v>
+      </c>
+      <c r="B187" s="1">
+        <v>15734</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A188">
+        <v>188</v>
+      </c>
+      <c r="B188" s="1">
+        <v>15936</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A189">
+        <v>189</v>
+      </c>
+      <c r="B189" s="1">
+        <v>16186</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A190">
+        <v>190</v>
+      </c>
+      <c r="B190" s="1">
+        <v>16457</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A191">
+        <v>191</v>
+      </c>
+      <c r="B191" s="1">
+        <v>16729</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A192">
+        <v>192</v>
+      </c>
+      <c r="B192" s="1">
+        <v>16979</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A193">
+        <v>193</v>
+      </c>
+      <c r="B193" s="1">
+        <v>17251</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A194">
+        <v>194</v>
+      </c>
+      <c r="B194" s="1">
+        <v>17537</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A195">
+        <v>195</v>
+      </c>
+      <c r="B195" s="1">
+        <v>17829</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A196">
+        <v>196</v>
+      </c>
+      <c r="B196" s="1">
+        <v>18072</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A197">
+        <v>197</v>
+      </c>
+      <c r="B197" s="1">
+        <v>18366</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A198">
+        <v>198</v>
+      </c>
+      <c r="B198" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A199">
+        <v>199</v>
+      </c>
+      <c r="B199" s="1">
+        <v>18859</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A200">
+        <v>200</v>
+      </c>
+      <c r="B200" s="1">
+        <v>19164</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A201">
+        <v>201</v>
+      </c>
+      <c r="B201" s="1">
+        <v>19438</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A202">
+        <v>202</v>
+      </c>
+      <c r="B202" s="1">
+        <v>19712</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A203">
+        <v>203</v>
+      </c>
+      <c r="B203" s="1">
+        <v>20018</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A204">
+        <v>204</v>
+      </c>
+      <c r="B204" s="1">
+        <v>20375</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A205">
+        <v>205</v>
+      </c>
+      <c r="B205" s="1">
+        <v>20671</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A206">
+        <v>206</v>
+      </c>
+      <c r="B206" s="1">
+        <v>20931</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A207">
+        <v>207</v>
+      </c>
+      <c r="B207" s="1">
+        <v>21224</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A208">
+        <v>208</v>
+      </c>
+      <c r="B208" s="1">
+        <v>21579</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A209">
+        <v>209</v>
+      </c>
+      <c r="B209" s="1">
+        <v>22166</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A210">
+        <v>210</v>
+      </c>
+      <c r="B210" s="1">
+        <v>22168</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A211">
+        <v>211</v>
+      </c>
+      <c r="B211" s="1">
+        <v>22521</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A212">
+        <v>212</v>
+      </c>
+      <c r="B212" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A213">
+        <v>213</v>
+      </c>
+      <c r="B213" s="1">
+        <v>23141</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A214">
+        <v>214</v>
+      </c>
+      <c r="B214" s="1">
+        <v>23489</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A215">
+        <v>215</v>
+      </c>
+      <c r="B215" s="1">
+        <v>23831</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A216">
+        <v>216</v>
+      </c>
+      <c r="B216" s="1">
+        <v>24172</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A217">
+        <v>217</v>
+      </c>
+      <c r="B217" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A218">
+        <v>218</v>
+      </c>
+      <c r="B218" s="1">
+        <v>24742</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A219">
+        <v>219</v>
+      </c>
+      <c r="B219" s="1">
+        <v>25139</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A220">
+        <v>220</v>
+      </c>
+      <c r="B220" s="1">
+        <v>25412</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A221">
+        <v>221</v>
+      </c>
+      <c r="B221" s="1">
+        <v>25773</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A222">
+        <v>222</v>
+      </c>
+      <c r="B222" s="1">
+        <v>26177</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A223">
+        <v>223</v>
+      </c>
+      <c r="B223" s="1">
+        <v>26479</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A224">
+        <v>224</v>
+      </c>
+      <c r="B224" s="1">
+        <v>26864</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A225">
+        <v>225</v>
+      </c>
+      <c r="B225" s="1">
+        <v>27186</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A226">
+        <v>226</v>
+      </c>
+      <c r="B226" s="1">
+        <v>27571</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A227">
+        <v>227</v>
+      </c>
+      <c r="B227" s="1">
+        <v>27955</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A228">
+        <v>228</v>
+      </c>
+      <c r="B228" s="1">
+        <v>28327</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A229">
+        <v>229</v>
+      </c>
+      <c r="B229" s="1">
+        <v>28739</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A230">
+        <v>230</v>
+      </c>
+      <c r="B230">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A231">
+        <v>231</v>
+      </c>
+      <c r="B231" s="1">
+        <v>29424</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A232">
+        <v>232</v>
+      </c>
+      <c r="B232" s="1">
+        <v>30262</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A233">
+        <v>233</v>
+      </c>
+      <c r="B233" s="1">
+        <v>30152</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A234">
+        <v>234</v>
+      </c>
+      <c r="B234" s="1">
+        <v>30623</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A235">
+        <v>235</v>
+      </c>
+      <c r="B235" s="1">
+        <v>30974</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A236">
+        <v>236</v>
+      </c>
+      <c r="B236" s="1">
+        <v>31431</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A237">
+        <v>237</v>
+      </c>
+      <c r="B237" s="1">
+        <v>31737</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A238">
+        <v>238</v>
+      </c>
+      <c r="B238" s="1">
+        <v>32153</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A239">
+        <v>239</v>
+      </c>
+      <c r="B239" s="1">
+        <v>32625</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A240">
+        <v>240</v>
+      </c>
+      <c r="B240" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A241">
+        <v>241</v>
+      </c>
+      <c r="B241" s="1">
+        <v>33442</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A242">
+        <v>242</v>
+      </c>
+      <c r="B242" s="1">
+        <v>33824</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A243">
+        <v>243</v>
+      </c>
+      <c r="B243" s="1">
+        <v>34277</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A244">
+        <v>244</v>
+      </c>
+      <c r="B244" s="1">
+        <v>34631</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A245">
+        <v>245</v>
+      </c>
+      <c r="B245" s="1">
+        <v>35108</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A246">
+        <v>246</v>
+      </c>
+      <c r="B246" s="1">
+        <v>35481</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A247">
+        <v>247</v>
+      </c>
+      <c r="B247" s="1">
+        <v>35992</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A248">
+        <v>248</v>
+      </c>
+      <c r="B248" s="1">
+        <v>36386</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A249">
+        <v>249</v>
+      </c>
+      <c r="B249" s="1">
+        <v>36869</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A250">
+        <v>250</v>
+      </c>
+      <c r="B250" s="1">
+        <v>37688</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A251">
+        <v>251</v>
+      </c>
+      <c r="B251" s="1">
+        <v>37731</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A252">
+        <v>252</v>
+      </c>
+      <c r="B252" s="1">
+        <v>38064</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A253">
+        <v>253</v>
+      </c>
+      <c r="B253" s="1">
+        <v>38618</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A254">
+        <v>254</v>
+      </c>
+      <c r="B254" s="1">
+        <v>39061</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A255">
+        <v>255</v>
+      </c>
+      <c r="B255" s="1">
+        <v>39579</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A256">
+        <v>256</v>
+      </c>
+      <c r="B256" s="1">
+        <v>40167</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A257">
+        <v>257</v>
+      </c>
+      <c r="B257" s="1">
+        <v>40574</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A258">
+        <v>258</v>
+      </c>
+      <c r="B258" s="1">
+        <v>40926</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A259">
+        <v>259</v>
+      </c>
+      <c r="B259" s="1">
+        <v>41461</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A260">
+        <v>260</v>
+      </c>
+      <c r="B260" s="1">
+        <v>41831</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A261">
+        <v>261</v>
+      </c>
+      <c r="B261" s="1">
+        <v>42402</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A262">
+        <v>262</v>
+      </c>
+      <c r="B262" s="1">
+        <v>42829</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A263">
+        <v>263</v>
+      </c>
+      <c r="B263" s="1">
+        <v>43398</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A264">
+        <v>264</v>
+      </c>
+      <c r="B264" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A265">
+        <v>265</v>
+      </c>
+      <c r="B265" s="1">
+        <v>44392</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A266">
+        <v>266</v>
+      </c>
+      <c r="B266" s="1">
+        <v>44921</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A267">
+        <v>267</v>
+      </c>
+      <c r="B267" s="1">
+        <v>45249</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A268">
+        <v>268</v>
+      </c>
+      <c r="B268" s="1">
+        <v>45852</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A269">
+        <v>269</v>
+      </c>
+      <c r="B269" s="1">
+        <v>46247</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A270">
+        <v>270</v>
+      </c>
+      <c r="B270" s="1">
+        <v>46827</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A271">
+        <v>271</v>
+      </c>
+      <c r="B271" s="1">
+        <v>47384</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A272">
+        <v>272</v>
+      </c>
+      <c r="B272" s="1">
+        <v>48022</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A273">
+        <v>273</v>
+      </c>
+      <c r="B273" s="1">
+        <v>48397</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A274">
+        <v>274</v>
+      </c>
+      <c r="B274" s="1">
+        <v>48844</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A275">
+        <v>275</v>
+      </c>
+      <c r="B275" s="1">
+        <v>49481</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A276">
+        <v>276</v>
+      </c>
+      <c r="B276" s="1">
+        <v>50215</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A277">
+        <v>277</v>
+      </c>
+      <c r="B277" s="1">
+        <v>51098</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A278">
+        <v>278</v>
+      </c>
+      <c r="B278" s="1">
+        <v>51043</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A279">
+        <v>279</v>
+      </c>
+      <c r="B279" s="1">
+        <v>51587</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A280">
+        <v>280</v>
+      </c>
+      <c r="B280" s="1">
+        <v>52199</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A281">
+        <v>281</v>
+      </c>
+      <c r="B281" s="1">
+        <v>52806</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A282">
+        <v>282</v>
+      </c>
+      <c r="B282" s="1">
+        <v>53372</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A283">
+        <v>283</v>
+      </c>
+      <c r="B283" s="1">
+        <v>53878</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A284">
+        <v>284</v>
+      </c>
+      <c r="B284" s="1">
+        <v>54358</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A285">
+        <v>285</v>
+      </c>
+      <c r="B285" s="1">
+        <v>55085</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A286">
+        <v>286</v>
+      </c>
+      <c r="B286" s="1">
+        <v>55635</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A287">
+        <v>287</v>
+      </c>
+      <c r="B287" s="1">
+        <v>56183</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A288">
+        <v>288</v>
+      </c>
+      <c r="B288" s="1">
+        <v>57194</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A289">
+        <v>289</v>
+      </c>
+      <c r="B289" s="1">
+        <v>57409</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A290">
+        <v>290</v>
+      </c>
+      <c r="B290" s="1">
+        <v>58005</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A291">
+        <v>291</v>
+      </c>
+      <c r="B291" s="1">
+        <v>58655</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A292">
+        <v>292</v>
+      </c>
+      <c r="B292" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A293">
+        <v>293</v>
+      </c>
+      <c r="B293" s="1">
+        <v>59665</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A294">
+        <v>294</v>
+      </c>
+      <c r="B294" s="1">
+        <v>60411</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A295">
+        <v>295</v>
+      </c>
+      <c r="B295" s="1">
+        <v>61042</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A296">
+        <v>296</v>
+      </c>
+      <c r="B296" s="1">
+        <v>61662</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A297">
+        <v>297</v>
+      </c>
+      <c r="B297" s="1">
+        <v>62256</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A298">
+        <v>298</v>
+      </c>
+      <c r="B298" s="1">
+        <v>63201</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A299">
+        <v>299</v>
+      </c>
+      <c r="B299" s="1">
+        <v>63414</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A300">
+        <v>300</v>
+      </c>
+      <c r="B300" s="1">
+        <v>64164</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A301">
+        <v>301</v>
+      </c>
+      <c r="B301" s="1">
+        <v>64737</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A302">
+        <v>302</v>
+      </c>
+      <c r="B302" s="1">
+        <v>65277</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A303">
+        <v>303</v>
+      </c>
+      <c r="B303" s="1">
+        <v>66063</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A304">
+        <v>304</v>
+      </c>
+      <c r="B304" s="1">
+        <v>66655</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A305">
+        <v>305</v>
+      </c>
+      <c r="B305" s="1">
+        <v>67407</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A306">
+        <v>306</v>
+      </c>
+      <c r="B306" s="1">
+        <v>68093</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A307">
+        <v>307</v>
+      </c>
+      <c r="B307" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A308">
+        <v>308</v>
+      </c>
+      <c r="B308" s="1">
+        <v>69353</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A309">
+        <v>309</v>
+      </c>
+      <c r="B309" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A310">
+        <v>310</v>
+      </c>
+      <c r="B310" s="1">
+        <v>70745</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A311">
+        <v>311</v>
+      </c>
+      <c r="B311" s="1">
+        <v>71336</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A312">
+        <v>312</v>
+      </c>
+      <c r="B312" s="1">
+        <v>72132</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A313">
+        <v>313</v>
+      </c>
+      <c r="B313" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A314">
+        <v>314</v>
+      </c>
+      <c r="B314" s="1">
+        <v>73439</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A315">
+        <v>315</v>
+      </c>
+      <c r="B315" s="1">
+        <v>74559</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A316">
+        <v>316</v>
+      </c>
+      <c r="B316" s="1">
+        <v>74832</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A317">
+        <v>317</v>
+      </c>
+      <c r="B317" s="1">
+        <v>75553</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A318">
+        <v>318</v>
+      </c>
+      <c r="B318" s="1">
+        <v>76247</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A319">
+        <v>319</v>
+      </c>
+      <c r="B319" s="1">
+        <v>76989</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A320">
+        <v>320</v>
+      </c>
+      <c r="B320" s="1">
+        <v>77831</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A321">
+        <v>321</v>
+      </c>
+      <c r="B321" s="1">
+        <v>78399</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A322">
+        <v>322</v>
+      </c>
+      <c r="B322" s="1">
+        <v>79217</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A323">
+        <v>323</v>
+      </c>
+      <c r="B323" s="1">
+        <v>80433</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A324">
+        <v>324</v>
+      </c>
+      <c r="B324" s="1">
+        <v>80765</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A325">
+        <v>325</v>
+      </c>
+      <c r="B325" s="1">
+        <v>81356</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A326">
+        <v>326</v>
+      </c>
+      <c r="B326" s="1">
+        <v>82116</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A327">
+        <v>327</v>
+      </c>
+      <c r="B327" s="1">
+        <v>82887</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A328">
+        <v>328</v>
+      </c>
+      <c r="B328" s="1">
+        <v>83661</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A329">
+        <v>329</v>
+      </c>
+      <c r="B329" s="1">
+        <v>84471</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A330">
+        <v>330</v>
+      </c>
+      <c r="B330" s="1">
+        <v>85581</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A331">
+        <v>331</v>
+      </c>
+      <c r="B331" s="1">
+        <v>86029</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A332">
+        <v>332</v>
+      </c>
+      <c r="B332" s="1">
+        <v>86834</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A333">
+        <v>333</v>
+      </c>
+      <c r="B333" s="1">
+        <v>87458</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A334">
+        <v>334</v>
+      </c>
+      <c r="B334" s="1">
+        <v>88373</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A335">
+        <v>335</v>
+      </c>
+      <c r="B335" s="1">
+        <v>89078</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A336">
+        <v>336</v>
+      </c>
+      <c r="B336" s="1">
+        <v>89911</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A337">
+        <v>337</v>
+      </c>
+      <c r="B337" s="1">
+        <v>91083</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A338">
+        <v>338</v>
+      </c>
+      <c r="B338" s="1">
+        <v>91488</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A339">
+        <v>339</v>
+      </c>
+      <c r="B339" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A340">
+        <v>340</v>
+      </c>
+      <c r="B340" s="1">
+        <v>93122</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A341">
+        <v>341</v>
+      </c>
+      <c r="B341" s="1">
+        <v>93868</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A342">
+        <v>342</v>
+      </c>
+      <c r="B342" s="1">
+        <v>94746</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A343">
+        <v>343</v>
+      </c>
+      <c r="B343" s="1">
+        <v>96052</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A344">
+        <v>344</v>
+      </c>
+      <c r="B344" s="1">
+        <v>96397</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A345">
+        <v>345</v>
+      </c>
+      <c r="B345" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A346">
+        <v>346</v>
+      </c>
+      <c r="B346" s="1">
+        <v>98036</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A347">
+        <v>347</v>
+      </c>
+      <c r="B347" s="1">
+        <v>98959</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A348">
+        <v>348</v>
+      </c>
+      <c r="B348" s="1">
+        <v>99759</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A349">
+        <v>349</v>
+      </c>
+      <c r="B349" s="1">
+        <v>101142</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A350">
+        <v>350</v>
+      </c>
+      <c r="B350" s="1">
+        <v>101629</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A351">
+        <v>351</v>
+      </c>
+      <c r="B351" s="1">
+        <v>102343</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A352">
+        <v>352</v>
+      </c>
+      <c r="B352" s="1">
+        <v>103174</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A353">
+        <v>353</v>
+      </c>
+      <c r="B353" s="1">
+        <v>104251</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A354">
+        <v>354</v>
+      </c>
+      <c r="B354" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A355">
+        <v>355</v>
+      </c>
+      <c r="B355" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A356">
+        <v>356</v>
+      </c>
+      <c r="B356" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A357">
+        <v>357</v>
+      </c>
+      <c r="B357" s="1">
+        <v>107792</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A358">
+        <v>358</v>
+      </c>
+      <c r="B358" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A359">
+        <v>359</v>
+      </c>
+      <c r="B359" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A360">
+        <v>360</v>
+      </c>
+      <c r="B360" s="1">
+        <v>110921</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A361">
+        <v>361</v>
+      </c>
+      <c r="B361" s="1">
+        <v>111288</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A362">
+        <v>362</v>
+      </c>
+      <c r="B362" s="1">
+        <v>112246</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A363">
+        <v>363</v>
+      </c>
+      <c r="B363" s="1">
+        <v>113319</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A364">
+        <v>364</v>
+      </c>
+      <c r="B364" s="1">
+        <v>114498</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A365">
+        <v>365</v>
+      </c>
+      <c r="B365" s="1">
+        <v>115369</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A366">
+        <v>366</v>
+      </c>
+      <c r="B366" s="1">
+        <v>116865</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A367">
+        <v>367</v>
+      </c>
+      <c r="B367" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A368">
+        <v>368</v>
+      </c>
+      <c r="B368" s="1">
+        <v>117817</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A369">
+        <v>369</v>
+      </c>
+      <c r="B369" s="1">
+        <v>118884</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A370">
+        <v>370</v>
+      </c>
+      <c r="B370" s="1">
+        <v>119866</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A371">
+        <v>371</v>
+      </c>
+      <c r="B371" s="1">
+        <v>121127</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A372">
+        <v>372</v>
+      </c>
+      <c r="B372" s="1">
+        <v>121931</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A373">
+        <v>373</v>
+      </c>
+      <c r="B373" s="1">
+        <v>122649</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A374">
+        <v>374</v>
+      </c>
+      <c r="B374" s="1">
+        <v>123601</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A375">
+        <v>375</v>
+      </c>
+      <c r="B375" s="1">
+        <v>125044</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A376">
+        <v>376</v>
+      </c>
+      <c r="B376" s="1">
+        <v>125796</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A377">
+        <v>377</v>
+      </c>
+      <c r="B377" s="1">
+        <v>126555</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A378">
+        <v>378</v>
+      </c>
+      <c r="B378" s="1">
+        <v>127773</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A379">
+        <v>379</v>
+      </c>
+      <c r="B379" s="1">
+        <v>128717</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A380">
+        <v>380</v>
+      </c>
+      <c r="B380" s="1">
+        <v>130066</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A381">
+        <v>381</v>
+      </c>
+      <c r="B381" s="1">
+        <v>130932</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A382">
+        <v>382</v>
+      </c>
+      <c r="B382" s="1">
+        <v>131718</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A383">
+        <v>383</v>
+      </c>
+      <c r="B383" s="1">
+        <v>132722</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A384">
+        <v>384</v>
+      </c>
+      <c r="B384" s="1">
+        <v>133826</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A385">
+        <v>385</v>
+      </c>
+      <c r="B385" s="1">
+        <v>135612</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A386">
+        <v>386</v>
+      </c>
+      <c r="B386" s="1">
+        <v>135984</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A387">
+        <v>387</v>
+      </c>
+      <c r="B387" s="1">
+        <v>137011</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A388">
+        <v>388</v>
+      </c>
+      <c r="B388" s="1">
+        <v>138042</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A389">
+        <v>389</v>
+      </c>
+      <c r="B389" s="1">
+        <v>139464</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A390">
+        <v>390</v>
+      </c>
+      <c r="B390" s="1">
+        <v>140171</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A391">
+        <v>391</v>
+      </c>
+      <c r="B391" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A392">
+        <v>392</v>
+      </c>
+      <c r="B392" s="1">
+        <v>142283</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A393">
+        <v>393</v>
+      </c>
+      <c r="B393" s="1">
+        <v>144017</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A394">
+        <v>394</v>
+      </c>
+      <c r="B394" s="1">
+        <v>144551</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A395">
+        <v>395</v>
+      </c>
+      <c r="B395" s="1">
+        <v>145972</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A396">
+        <v>396</v>
+      </c>
+      <c r="B396" s="1">
+        <v>146892</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A397">
+        <v>397</v>
+      </c>
+      <c r="B397" s="1">
+        <v>148188</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A398">
+        <v>398</v>
+      </c>
+      <c r="B398" s="1">
+        <v>149818</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A399">
+        <v>399</v>
+      </c>
+      <c r="B399" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A400">
+        <v>400</v>
+      </c>
+      <c r="B400" s="1">
+        <v>151706</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A401">
+        <v>401</v>
+      </c>
+      <c r="B401" s="1">
+        <v>153332</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A402">
+        <v>402</v>
+      </c>
+      <c r="B402" s="1">
+        <v>153413</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A403">
+        <v>403</v>
+      </c>
+      <c r="B403" s="1">
+        <v>154962</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A404">
+        <v>404</v>
+      </c>
+      <c r="B404" s="1">
+        <v>155753</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A405">
+        <v>405</v>
+      </c>
+      <c r="B405" s="1">
+        <v>158739</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A406">
+        <v>406</v>
+      </c>
+      <c r="B406" s="1">
+        <v>161403</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A407">
+        <v>407</v>
+      </c>
+      <c r="B407" s="1">
+        <v>159362</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A408">
+        <v>408</v>
+      </c>
+      <c r="B408" s="1">
+        <v>160568</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A409">
+        <v>409</v>
+      </c>
+      <c r="B409" s="1">
+        <v>164577</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A410">
+        <v>410</v>
+      </c>
+      <c r="B410" s="1">
+        <v>165233</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A411">
+        <v>411</v>
+      </c>
+      <c r="B411" s="1">
+        <v>163931</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A412">
+        <v>412</v>
+      </c>
+      <c r="B412" s="1">
+        <v>165567</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A413">
+        <v>413</v>
+      </c>
+      <c r="B413" s="1">
+        <v>166475</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A414">
+        <v>414</v>
+      </c>
+      <c r="B414" s="1">
+        <v>167523</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A415">
+        <v>415</v>
+      </c>
+      <c r="B415" s="1">
+        <v>168948</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A416">
+        <v>416</v>
+      </c>
+      <c r="B416" s="1">
+        <v>173601</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A417">
+        <v>417</v>
+      </c>
+      <c r="B417" s="1">
+        <v>182298</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A418">
+        <v>418</v>
+      </c>
+      <c r="B418" s="1">
+        <v>175721</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A419">
+        <v>419</v>
+      </c>
+      <c r="B419" s="1">
+        <v>176029</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A420">
+        <v>420</v>
+      </c>
+      <c r="B420" s="1">
+        <v>180057</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A421">
+        <v>421</v>
+      </c>
+      <c r="B421" s="1">
+        <v>186194</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A422">
+        <v>422</v>
+      </c>
+      <c r="B422" s="1">
+        <v>183563</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A423">
+        <v>423</v>
+      </c>
+      <c r="B423" s="1">
+        <v>187632</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A424">
+        <v>424</v>
+      </c>
+      <c r="B424" s="1">
+        <v>190375</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A425">
+        <v>425</v>
+      </c>
+      <c r="B425" s="1">
+        <v>190981</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A426">
+        <v>426</v>
+      </c>
+      <c r="B426" s="1">
+        <v>184276</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A427">
+        <v>427</v>
+      </c>
+      <c r="B427" s="1">
+        <v>187738</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A428">
+        <v>428</v>
+      </c>
+      <c r="B428" s="1">
+        <v>191468</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A429">
+        <v>429</v>
+      </c>
+      <c r="B429" s="1">
+        <v>187421</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A430">
+        <v>430</v>
+      </c>
+      <c r="B430" s="1">
+        <v>188823</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A431">
+        <v>431</v>
+      </c>
+      <c r="B431" s="1">
+        <v>190283</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A432">
+        <v>432</v>
+      </c>
+      <c r="B432" s="1">
+        <v>190495</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A433">
+        <v>433</v>
+      </c>
+      <c r="B433" s="1">
+        <v>202646</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A434">
+        <v>434</v>
+      </c>
+      <c r="B434" s="1">
+        <v>201537</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A435">
+        <v>435</v>
+      </c>
+      <c r="B435" s="1">
+        <v>194685</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A436">
+        <v>436</v>
+      </c>
+      <c r="B436" s="1">
+        <v>198757</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A437">
+        <v>437</v>
+      </c>
+      <c r="B437" s="1">
+        <v>201509</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A438">
+        <v>438</v>
+      </c>
+      <c r="B438" s="1">
+        <v>208472</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A439">
+        <v>439</v>
+      </c>
+      <c r="B439" s="1">
+        <v>207448</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A440">
+        <v>440</v>
+      </c>
+      <c r="B440" s="1">
+        <v>203407</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A441">
+        <v>441</v>
+      </c>
+      <c r="B441" s="1">
+        <v>202842</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A442">
+        <v>442</v>
+      </c>
+      <c r="B442" s="1">
+        <v>208438</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A443">
+        <v>443</v>
+      </c>
+      <c r="B443" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A444">
+        <v>444</v>
+      </c>
+      <c r="B444" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A445">
+        <v>445</v>
+      </c>
+      <c r="B445" s="1">
+        <v>211325</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A446">
+        <v>446</v>
+      </c>
+      <c r="B446" s="1">
+        <v>214469</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A447">
+        <v>447</v>
+      </c>
+      <c r="B447" s="1">
+        <v>215954</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A448">
+        <v>448</v>
+      </c>
+      <c r="B448" s="1">
+        <v>222135</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A449">
+        <v>449</v>
+      </c>
+      <c r="B449" s="1">
+        <v>229699</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A450">
+        <v>450</v>
+      </c>
+      <c r="B450" s="1">
+        <v>220902</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A451">
+        <v>451</v>
+      </c>
+      <c r="B451" s="1">
+        <v>221659</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A452">
+        <v>452</v>
+      </c>
+      <c r="B452" s="1">
+        <v>222897</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A453">
+        <v>453</v>
+      </c>
+      <c r="B453" s="1">
+        <v>222931</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A454">
+        <v>454</v>
+      </c>
+      <c r="B454" s="1">
+        <v>230055</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A455">
+        <v>455</v>
+      </c>
+      <c r="B455" s="1">
+        <v>233731</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A456">
+        <v>456</v>
+      </c>
+      <c r="B456" s="1">
+        <v>235091</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A457">
+        <v>457</v>
+      </c>
+      <c r="B457" s="1">
+        <v>231482</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A458">
+        <v>458</v>
+      </c>
+      <c r="B458" s="1">
+        <v>228438</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A459">
+        <v>459</v>
+      </c>
+      <c r="B459" s="1">
+        <v>229936</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A460">
+        <v>460</v>
+      </c>
+      <c r="B460" s="1">
+        <v>231062</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A461">
+        <v>461</v>
+      </c>
+      <c r="B461" s="1">
+        <v>234664</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A462">
+        <v>462</v>
+      </c>
+      <c r="B462" s="1">
+        <v>239609</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A463">
+        <v>463</v>
+      </c>
+      <c r="B463" s="1">
+        <v>235635</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A464">
+        <v>464</v>
+      </c>
+      <c r="B464" s="1">
+        <v>242348</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A465">
+        <v>465</v>
+      </c>
+      <c r="B465" s="1">
+        <v>238805</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A466">
+        <v>466</v>
+      </c>
+      <c r="B466" s="1">
+        <v>242821</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A467">
+        <v>467</v>
+      </c>
+      <c r="B467" s="1">
+        <v>241442</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A468">
+        <v>468</v>
+      </c>
+      <c r="B468" s="1">
+        <v>245538</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A469">
+        <v>469</v>
+      </c>
+      <c r="B469" s="1">
+        <v>245088</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A470">
+        <v>470</v>
+      </c>
+      <c r="B470" s="1">
+        <v>246972</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A471">
+        <v>471</v>
+      </c>
+      <c r="B471" s="1">
+        <v>255777</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A472">
+        <v>472</v>
+      </c>
+      <c r="B472" s="1">
+        <v>261228</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A473">
+        <v>473</v>
+      </c>
+      <c r="B473" s="1">
+        <v>254532</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A474">
+        <v>474</v>
+      </c>
+      <c r="B474" s="1">
+        <v>257459</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A475">
+        <v>475</v>
+      </c>
+      <c r="B475" s="1">
+        <v>254667</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A476">
+        <v>476</v>
+      </c>
+      <c r="B476" s="1">
+        <v>256183</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A477">
+        <v>477</v>
+      </c>
+      <c r="B477" s="1">
+        <v>258899</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A478">
+        <v>478</v>
+      </c>
+      <c r="B478" s="1">
+        <v>260673</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A479">
+        <v>479</v>
+      </c>
+      <c r="B479" s="1">
+        <v>272605</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A480">
+        <v>480</v>
+      </c>
+      <c r="B480" s="1">
+        <v>273854</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A481">
+        <v>481</v>
+      </c>
+      <c r="B481" s="1">
+        <v>275633</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A482">
+        <v>482</v>
+      </c>
+      <c r="B482" s="1">
+        <v>276953</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A483">
+        <v>483</v>
+      </c>
+      <c r="B483" s="1">
+        <v>278863</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A484">
+        <v>484</v>
+      </c>
+      <c r="B484" s="1">
+        <v>280857</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A485">
+        <v>485</v>
+      </c>
+      <c r="B485" s="1">
+        <v>282547</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A486">
+        <v>486</v>
+      </c>
+      <c r="B486" s="1">
+        <v>283742</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A487">
+        <v>487</v>
+      </c>
+      <c r="B487" s="1">
+        <v>273051</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A488">
+        <v>488</v>
+      </c>
+      <c r="B488" s="1">
+        <v>277181</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A489">
+        <v>489</v>
+      </c>
+      <c r="B489" s="1">
+        <v>276066</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A490">
+        <v>490</v>
+      </c>
+      <c r="B490" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A491">
+        <v>491</v>
+      </c>
+      <c r="B491" s="1">
+        <v>281644</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A492">
+        <v>492</v>
+      </c>
+      <c r="B492" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A493">
+        <v>493</v>
+      </c>
+      <c r="B493" s="1">
+        <v>297194</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A494">
+        <v>494</v>
+      </c>
+      <c r="B494" s="1">
+        <v>298995</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A495">
+        <v>495</v>
+      </c>
+      <c r="B495" s="1">
+        <v>291733</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A496">
+        <v>496</v>
+      </c>
+      <c r="B496" s="1">
+        <v>290063</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A497">
+        <v>497</v>
+      </c>
+      <c r="B497" s="1">
+        <v>295878</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A498">
+        <v>498</v>
+      </c>
+      <c r="B498" s="1">
+        <v>292556</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A499">
+        <v>499</v>
+      </c>
+      <c r="B499" s="1">
+        <v>293652</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A500">
+        <v>500</v>
+      </c>
+      <c r="B500" s="1">
+        <v>299454</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A501">
+        <v>501</v>
+      </c>
+      <c r="B501" s="1">
+        <v>310731</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A502">
+        <v>502</v>
+      </c>
+      <c r="B502" s="1">
+        <v>303399</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A503">
+        <v>503</v>
+      </c>
+      <c r="B503" s="1">
+        <v>301375</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A504">
+        <v>504</v>
+      </c>
+      <c r="B504" s="1">
+        <v>302016</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A505">
+        <v>505</v>
+      </c>
+      <c r="B505" s="1">
+        <v>319068</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A506">
+        <v>506</v>
+      </c>
+      <c r="B506" s="1">
+        <v>312313</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A507">
+        <v>507</v>
+      </c>
+      <c r="B507" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A508">
+        <v>508</v>
+      </c>
+      <c r="B508" s="1">
+        <v>324353</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A509">
+        <v>509</v>
+      </c>
+      <c r="B509" s="1">
+        <v>322517</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A510">
+        <v>510</v>
+      </c>
+      <c r="B510" s="1">
+        <v>314598</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A511">
+        <v>511</v>
+      </c>
+      <c r="B511" s="1">
+        <v>314469</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A512">
+        <v>512</v>
+      </c>
+      <c r="B512" s="1">
+        <v>316251</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A513">
+        <v>513</v>
+      </c>
+      <c r="B513" s="1">
+        <v>319501</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A514">
+        <v>514</v>
+      </c>
+      <c r="B514" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A515">
+        <v>515</v>
+      </c>
+      <c r="B515" s="1">
+        <v>321884</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A516">
+        <v>516</v>
+      </c>
+      <c r="B516" s="1">
+        <v>323422</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A517">
+        <v>517</v>
+      </c>
+      <c r="B517" s="1">
+        <v>326554</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A518">
+        <v>518</v>
+      </c>
+      <c r="B518" s="1">
+        <v>334744</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A519">
+        <v>519</v>
+      </c>
+      <c r="B519" s="1">
+        <v>338139</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A520">
+        <v>520</v>
+      </c>
+      <c r="B520" s="1">
+        <v>334261</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A521">
+        <v>521</v>
+      </c>
+      <c r="B521" s="1">
+        <v>337391</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A522">
+        <v>522</v>
+      </c>
+      <c r="B522" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A523">
+        <v>523</v>
+      </c>
+      <c r="B523" s="1">
+        <v>353524</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A524">
+        <v>524</v>
+      </c>
+      <c r="B524" s="1">
+        <v>354745</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A525">
+        <v>525</v>
+      </c>
+      <c r="B525" s="1">
+        <v>358195</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A526">
+        <v>526</v>
+      </c>
+      <c r="B526" s="1">
+        <v>353616</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A527">
+        <v>527</v>
+      </c>
+      <c r="B527" s="1">
+        <v>353632</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A528">
+        <v>528</v>
+      </c>
+      <c r="B528" s="1">
+        <v>362156</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A529">
+        <v>529</v>
+      </c>
+      <c r="B529" s="1">
+        <v>354344</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A530">
+        <v>530</v>
+      </c>
+      <c r="B530" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A531">
+        <v>531</v>
+      </c>
+      <c r="B531" s="1">
+        <v>358174</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A532">
+        <v>532</v>
+      </c>
+      <c r="B532" s="1">
+        <v>363141</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A533">
+        <v>533</v>
+      </c>
+      <c r="B533" s="1">
+        <v>375632</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A534">
+        <v>534</v>
+      </c>
+      <c r="B534" s="1">
+        <v>364412</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A535">
+        <v>535</v>
+      </c>
+      <c r="B535" s="1">
+        <v>375857</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A536">
+        <v>536</v>
+      </c>
+      <c r="B536" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A537">
+        <v>537</v>
+      </c>
+      <c r="B537" s="1">
+        <v>366352</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A538">
+        <v>538</v>
+      </c>
+      <c r="B538" s="1">
+        <v>367958</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A539">
+        <v>539</v>
+      </c>
+      <c r="B539" s="1">
+        <v>369832</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A540">
+        <v>540</v>
+      </c>
+      <c r="B540" s="1">
+        <v>371661</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A541">
+        <v>541</v>
+      </c>
+      <c r="B541" s="1">
+        <v>373646</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A542">
+        <v>542</v>
+      </c>
+      <c r="B542" s="1">
+        <v>375662</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A543">
+        <v>543</v>
+      </c>
+      <c r="B543" s="1">
+        <v>377992</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A544">
+        <v>544</v>
+      </c>
+      <c r="B544" s="1">
+        <v>380931</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A545">
+        <v>545</v>
+      </c>
+      <c r="B545" s="1">
+        <v>382663</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A546">
+        <v>546</v>
+      </c>
+      <c r="B546" s="1">
+        <v>383837</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A547">
+        <v>547</v>
+      </c>
+      <c r="B547" s="1">
+        <v>386152</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A548">
+        <v>548</v>
+      </c>
+      <c r="B548" s="1">
+        <v>388352</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A549">
+        <v>549</v>
+      </c>
+      <c r="B549" s="1">
+        <v>390194</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A550">
+        <v>550</v>
+      </c>
+      <c r="B550" s="1">
+        <v>392567</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A551">
+        <v>551</v>
+      </c>
+      <c r="B551" s="1">
+        <v>394745</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A552">
+        <v>552</v>
+      </c>
+      <c r="B552" s="1">
+        <v>397087</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A553">
+        <v>553</v>
+      </c>
+      <c r="B553" s="1">
+        <v>398916</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A554">
+        <v>554</v>
+      </c>
+      <c r="B554" s="1">
+        <v>401058</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A555">
+        <v>555</v>
+      </c>
+      <c r="B555" s="1">
+        <v>403485</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A556">
+        <v>556</v>
+      </c>
+      <c r="B556" s="1">
+        <v>406051</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A557">
+        <v>557</v>
+      </c>
+      <c r="B557" s="1">
+        <v>407978</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A558">
+        <v>558</v>
+      </c>
+      <c r="B558" s="1">
+        <v>411921</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A559">
+        <v>559</v>
+      </c>
+      <c r="B559" s="1">
+        <v>411275</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A560">
+        <v>560</v>
+      </c>
+      <c r="B560" s="1">
+        <v>413264</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A561">
+        <v>561</v>
+      </c>
+      <c r="B561" s="1">
+        <v>415356</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A562">
+        <v>562</v>
+      </c>
+      <c r="B562" s="1">
+        <v>417633</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A563">
+        <v>563</v>
+      </c>
+      <c r="B563" s="1">
+        <v>419454</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A564">
+        <v>564</v>
+      </c>
+      <c r="B564" s="1">
+        <v>421833</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A565">
+        <v>565</v>
+      </c>
+      <c r="B565" s="1">
+        <v>424029</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A566">
+        <v>566</v>
+      </c>
+      <c r="B566" s="1">
+        <v>426715</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A567">
+        <v>567</v>
+      </c>
+      <c r="B567" s="1">
+        <v>428682</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A568">
+        <v>568</v>
+      </c>
+      <c r="B568" s="1">
+        <v>430876</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A569">
+        <v>569</v>
+      </c>
+      <c r="B569" s="1">
+        <v>433016</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A570">
+        <v>570</v>
+      </c>
+      <c r="B570" s="1">
+        <v>435885</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A571">
+        <v>571</v>
+      </c>
+      <c r="B571" s="1">
+        <v>437447</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A572">
+        <v>572</v>
+      </c>
+      <c r="B572" s="1">
+        <v>439715</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A573">
+        <v>573</v>
+      </c>
+      <c r="B573" s="1">
+        <v>442175</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A574">
+        <v>574</v>
+      </c>
+      <c r="B574" s="1">
+        <v>444711</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A575">
+        <v>575</v>
+      </c>
+      <c r="B575" s="1">
+        <v>446644</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A576">
+        <v>576</v>
+      </c>
+      <c r="B576" s="1">
+        <v>449327</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A577">
+        <v>577</v>
+      </c>
+      <c r="B577" s="1">
+        <v>451811</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A578">
+        <v>578</v>
+      </c>
+      <c r="B578" s="1">
+        <v>454246</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A579">
+        <v>579</v>
+      </c>
+      <c r="B579" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A580">
+        <v>580</v>
+      </c>
+      <c r="B580" s="1">
+        <v>458443</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A581">
+        <v>581</v>
+      </c>
+      <c r="B581" s="1">
+        <v>460944</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A582">
+        <v>582</v>
+      </c>
+      <c r="B582" s="1">
+        <v>463485</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A583">
+        <v>583</v>
+      </c>
+      <c r="B583" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A584">
+        <v>584</v>
+      </c>
+      <c r="B584" s="1">
+        <v>468252</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A585">
+        <v>585</v>
+      </c>
+      <c r="B585" s="1">
+        <v>470846</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A586">
+        <v>586</v>
+      </c>
+      <c r="B586" s="1">
+        <v>472651</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A587">
+        <v>587</v>
+      </c>
+      <c r="B587" s="1">
+        <v>475388</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A588">
+        <v>588</v>
+      </c>
+      <c r="B588" s="1">
+        <v>478114</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A589">
+        <v>589</v>
+      </c>
+      <c r="B589" s="1">
+        <v>480131</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A590">
+        <v>590</v>
+      </c>
+      <c r="B590" s="1">
+        <v>482385</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A591">
+        <v>591</v>
+      </c>
+      <c r="B591" s="1">
+        <v>485344</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A592">
+        <v>592</v>
+      </c>
+      <c r="B592" s="1">
+        <v>488392</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A593">
+        <v>593</v>
+      </c>
+      <c r="B593" s="1">
+        <v>490094</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A594">
+        <v>594</v>
+      </c>
+      <c r="B594" s="1">
+        <v>492563</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A595">
+        <v>595</v>
+      </c>
+      <c r="B595" s="1">
+        <v>494891</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A596">
+        <v>596</v>
+      </c>
+      <c r="B596" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A597">
+        <v>597</v>
+      </c>
+      <c r="B597" s="1">
+        <v>500061</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A598">
+        <v>598</v>
+      </c>
+      <c r="B598" s="1">
+        <v>502309</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A599">
+        <v>599</v>
+      </c>
+      <c r="B599" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A600">
+        <v>600</v>
+      </c>
+      <c r="B600" s="1">
+        <v>507502</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A601">
+        <v>601</v>
+      </c>
+      <c r="B601" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A602">
+        <v>602</v>
+      </c>
+      <c r="B602" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A603">
+        <v>603</v>
+      </c>
+      <c r="B603" s="1">
+        <v>515406</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A604">
+        <v>604</v>
+      </c>
+      <c r="B604" s="1">
+        <v>517438</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A605">
+        <v>605</v>
+      </c>
+      <c r="B605" s="1">
+        <v>520369</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A606">
+        <v>606</v>
+      </c>
+      <c r="B606" s="1">
+        <v>523168</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A607">
+        <v>607</v>
+      </c>
+      <c r="B607" s="1">
+        <v>525673</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A608">
+        <v>608</v>
+      </c>
+      <c r="B608" s="1">
+        <v>527942</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A609">
+        <v>609</v>
+      </c>
+      <c r="B609" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A610">
+        <v>610</v>
+      </c>
+      <c r="B610" s="1">
+        <v>533336</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A611">
+        <v>611</v>
+      </c>
+      <c r="B611" s="1">
+        <v>535806</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A612">
+        <v>612</v>
+      </c>
+      <c r="B612" s="1">
+        <v>538364</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A613">
+        <v>613</v>
+      </c>
+      <c r="B613" s="1">
+        <v>541436</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A614">
+        <v>614</v>
+      </c>
+      <c r="B614" s="1">
+        <v>543729</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A615">
+        <v>615</v>
+      </c>
+      <c r="B615" s="1">
+        <v>546669</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A616">
+        <v>616</v>
+      </c>
+      <c r="B616" s="1">
+        <v>549711</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A617">
+        <v>617</v>
+      </c>
+      <c r="B617" s="1">
+        <v>552317</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A618">
+        <v>618</v>
+      </c>
+      <c r="B618" s="1">
+        <v>554723</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A619">
+        <v>619</v>
+      </c>
+      <c r="B619" s="1">
+        <v>557114</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A620">
+        <v>620</v>
+      </c>
+      <c r="B620" s="1">
+        <v>560287</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A621">
+        <v>621</v>
+      </c>
+      <c r="B621" s="1">
+        <v>562488</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A622">
+        <v>622</v>
+      </c>
+      <c r="B622" s="1">
+        <v>565459</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A623">
+        <v>623</v>
+      </c>
+      <c r="B623" s="1">
+        <v>567872</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A624">
+        <v>624</v>
+      </c>
+      <c r="B624" s="1">
+        <v>570628</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A625">
+        <v>625</v>
+      </c>
+      <c r="B625" s="1">
+        <v>573347</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A626">
+        <v>626</v>
+      </c>
+      <c r="B626" s="1">
+        <v>576494</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A627">
+        <v>627</v>
+      </c>
+      <c r="B627" s="1">
+        <v>578544</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A628">
+        <v>628</v>
+      </c>
+      <c r="B628" s="1">
+        <v>581605</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A629">
+        <v>629</v>
+      </c>
+      <c r="B629" s="1">
+        <v>583998</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A630">
+        <v>630</v>
+      </c>
+      <c r="B630" s="1">
+        <v>586989</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A631">
+        <v>631</v>
+      </c>
+      <c r="B631" s="1">
+        <v>590107</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A632">
+        <v>632</v>
+      </c>
+      <c r="B632" s="1">
+        <v>592528</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A633">
+        <v>633</v>
+      </c>
+      <c r="B633" s="1">
+        <v>595487</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A634">
+        <v>634</v>
+      </c>
+      <c r="B634" s="1">
+        <v>598194</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A635">
+        <v>635</v>
+      </c>
+      <c r="B635" s="1">
+        <v>601256</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A636">
+        <v>636</v>
+      </c>
+      <c r="B636" s="1">
+        <v>603584</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A637">
+        <v>637</v>
+      </c>
+      <c r="B637" s="1">
+        <v>606971</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A638">
+        <v>638</v>
+      </c>
+      <c r="B638" s="1">
+        <v>609364</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A639">
+        <v>639</v>
+      </c>
+      <c r="B639" s="1">
+        <v>612464</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A640">
+        <v>640</v>
+      </c>
+      <c r="B640" s="1">
+        <v>615058</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A641">
+        <v>641</v>
+      </c>
+      <c r="B641" s="1">
+        <v>618228</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A642">
+        <v>642</v>
+      </c>
+      <c r="B642" s="1">
+        <v>620971</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A643">
+        <v>643</v>
+      </c>
+      <c r="B643" s="1">
+        <v>623964</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A644">
+        <v>644</v>
+      </c>
+      <c r="B644" s="1">
+        <v>627127</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A645">
+        <v>645</v>
+      </c>
+      <c r="B645" s="1">
+        <v>629811</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A646">
+        <v>646</v>
+      </c>
+      <c r="B646" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A647">
+        <v>647</v>
+      </c>
+      <c r="B647" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A648">
+        <v>648</v>
+      </c>
+      <c r="B648" s="1">
+        <v>638639</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A649">
+        <v>649</v>
+      </c>
+      <c r="B649" s="1">
+        <v>641353</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A650">
+        <v>650</v>
+      </c>
+      <c r="B650" s="1">
+        <v>645045</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A651">
+        <v>651</v>
+      </c>
+      <c r="B651" s="1">
+        <v>648027</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A652">
+        <v>652</v>
+      </c>
+      <c r="B652" s="1">
+        <v>650755</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A653">
+        <v>653</v>
+      </c>
+      <c r="B653" s="1">
+        <v>653807</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A654">
+        <v>654</v>
+      </c>
+      <c r="B654" s="1">
+        <v>658176</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A655">
+        <v>655</v>
+      </c>
+      <c r="B655" s="1">
+        <v>665564</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A656">
+        <v>656</v>
+      </c>
+      <c r="B656" s="1">
+        <v>670465</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A657">
+        <v>657</v>
+      </c>
+      <c r="B657" s="1">
+        <v>672586</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A658">
+        <v>658</v>
+      </c>
+      <c r="B658" s="1">
+        <v>678899</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A659">
+        <v>659</v>
+      </c>
+      <c r="B659" s="1">
+        <v>678042</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A660">
+        <v>660</v>
+      </c>
+      <c r="B660" s="1">
+        <v>676179</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A661">
+        <v>661</v>
+      </c>
+      <c r="B661" s="1">
+        <v>679154</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A662">
+        <v>662</v>
+      </c>
+      <c r="B662" s="1">
+        <v>681832</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A663">
+        <v>663</v>
+      </c>
+      <c r="B663" s="1">
+        <v>684653</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A664">
+        <v>664</v>
+      </c>
+      <c r="B664" s="1">
+        <v>687609</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A665">
+        <v>665</v>
+      </c>
+      <c r="B665" s="1">
+        <v>691004</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A666">
+        <v>666</v>
+      </c>
+      <c r="B666" s="1">
+        <v>694984</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A667">
+        <v>667</v>
+      </c>
+      <c r="B667" s="1">
+        <v>697874</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A668">
+        <v>668</v>
+      </c>
+      <c r="B668" s="1">
+        <v>700646</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A669">
+        <v>669</v>
+      </c>
+      <c r="B669" s="1">
+        <v>703182</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A670">
+        <v>670</v>
+      </c>
+      <c r="B670" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A671">
+        <v>671</v>
+      </c>
+      <c r="B671" s="1">
+        <v>722105</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A672">
+        <v>672</v>
+      </c>
+      <c r="B672" s="1">
+        <v>723181</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A673">
+        <v>673</v>
+      </c>
+      <c r="B673" s="1">
+        <v>716723</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A674">
+        <v>674</v>
+      </c>
+      <c r="B674" s="1">
+        <v>723447</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A675">
+        <v>675</v>
+      </c>
+      <c r="B675" s="1">
+        <v>728384</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A676">
+        <v>676</v>
+      </c>
+      <c r="B676" s="1">
+        <v>729398</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A677">
+        <v>677</v>
+      </c>
+      <c r="B677" s="1">
+        <v>732385</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A678">
+        <v>678</v>
+      </c>
+      <c r="B678" s="1">
+        <v>731919</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A679">
+        <v>679</v>
+      </c>
+      <c r="B679" s="1">
+        <v>734695</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A680">
+        <v>680</v>
+      </c>
+      <c r="B680" s="1">
+        <v>738302</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A681">
+        <v>681</v>
+      </c>
+      <c r="B681" s="1">
+        <v>741975</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A682">
+        <v>682</v>
+      </c>
+      <c r="B682" s="1">
+        <v>744537</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A683">
+        <v>683</v>
+      </c>
+      <c r="B683" s="1">
+        <v>747974</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A684">
+        <v>684</v>
+      </c>
+      <c r="B684" s="1">
+        <v>751772</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A685">
+        <v>685</v>
+      </c>
+      <c r="B685" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A686">
+        <v>686</v>
+      </c>
+      <c r="B686" s="1">
+        <v>758049</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A687">
+        <v>687</v>
+      </c>
+      <c r="B687" s="1">
+        <v>761202</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A688">
+        <v>688</v>
+      </c>
+      <c r="B688" s="1">
+        <v>764298</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A689">
+        <v>689</v>
+      </c>
+      <c r="B689" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A690">
+        <v>690</v>
+      </c>
+      <c r="B690" s="1">
+        <v>771286</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A691">
+        <v>691</v>
+      </c>
+      <c r="B691" s="1">
+        <v>774823</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A692">
+        <v>692</v>
+      </c>
+      <c r="B692" s="1">
+        <v>778441</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A693">
+        <v>693</v>
+      </c>
+      <c r="B693" s="1">
+        <v>783495</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A694">
+        <v>694</v>
+      </c>
+      <c r="B694" s="1">
+        <v>784696</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A695">
+        <v>695</v>
+      </c>
+      <c r="B695" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A696">
+        <v>696</v>
+      </c>
+      <c r="B696" s="1">
+        <v>791182</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A697">
+        <v>697</v>
+      </c>
+      <c r="B697" s="1">
+        <v>794793</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A698">
+        <v>698</v>
+      </c>
+      <c r="B698" s="1">
+        <v>798317</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A699">
+        <v>699</v>
+      </c>
+      <c r="B699" s="1">
+        <v>801751</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A700">
+        <v>700</v>
+      </c>
+      <c r="B700" s="1">
+        <v>804998</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A701">
+        <v>701</v>
+      </c>
+      <c r="B701" s="1">
+        <v>808482</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A702">
+        <v>702</v>
+      </c>
+      <c r="B702" s="1">
+        <v>811977</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A703">
+        <v>703</v>
+      </c>
+      <c r="B703" s="1">
+        <v>815126</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A704">
+        <v>704</v>
+      </c>
+      <c r="B704" s="1">
+        <v>820738</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A705">
+        <v>705</v>
+      </c>
+      <c r="B705" s="1">
+        <v>822335</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A706">
+        <v>706</v>
+      </c>
+      <c r="B706" s="1">
+        <v>826262</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A707">
+        <v>707</v>
+      </c>
+      <c r="B707" s="1">
+        <v>830236</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A708">
+        <v>708</v>
+      </c>
+      <c r="B708" s="1">
+        <v>832875</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A709">
+        <v>709</v>
+      </c>
+      <c r="B709" s="1">
+        <v>837077</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A710">
+        <v>710</v>
+      </c>
+      <c r="B710" s="1">
+        <v>840806</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A711">
+        <v>711</v>
+      </c>
+      <c r="B711" s="1">
+        <v>843207</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A712">
+        <v>712</v>
+      </c>
+      <c r="B712" s="1">
+        <v>846868</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A713">
+        <v>713</v>
+      </c>
+      <c r="B713" s="1">
+        <v>850408</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A714">
+        <v>714</v>
+      </c>
+      <c r="B714" s="1">
+        <v>853973</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A715">
+        <v>715</v>
+      </c>
+      <c r="B715" s="1">
+        <v>857316</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A716">
+        <v>716</v>
+      </c>
+      <c r="B716" s="1">
+        <v>861534</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A717">
+        <v>717</v>
+      </c>
+      <c r="B717" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A718">
+        <v>718</v>
+      </c>
+      <c r="B718" s="1">
+        <v>869638</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A719">
+        <v>719</v>
+      </c>
+      <c r="B719" s="1">
+        <v>873727</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A720">
+        <v>720</v>
+      </c>
+      <c r="B720" s="1">
+        <v>878095</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A721">
+        <v>721</v>
+      </c>
+      <c r="B721" s="1">
+        <v>880166</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A722">
+        <v>722</v>
+      </c>
+      <c r="B722" s="1">
+        <v>896914</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A723">
+        <v>723</v>
+      </c>
+      <c r="B723" s="1">
+        <v>891937</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A724">
+        <v>724</v>
+      </c>
+      <c r="B724" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A725">
+        <v>725</v>
+      </c>
+      <c r="B725" s="1">
+        <v>907036</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A726">
+        <v>726</v>
+      </c>
+      <c r="B726" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A727">
+        <v>727</v>
+      </c>
+      <c r="B727" s="1">
+        <v>902044</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A728">
+        <v>728</v>
+      </c>
+      <c r="B728" s="1">
+        <v>906388</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A729">
+        <v>729</v>
+      </c>
+      <c r="B729" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A730">
+        <v>730</v>
+      </c>
+      <c r="B730" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A731">
+        <v>731</v>
+      </c>
+      <c r="B731" s="1">
+        <v>917598</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A732">
+        <v>732</v>
+      </c>
+      <c r="B732" s="1">
+        <v>922796</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A733">
+        <v>733</v>
+      </c>
+      <c r="B733" s="1">
+        <v>924403</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A734">
+        <v>734</v>
+      </c>
+      <c r="B734" s="1">
+        <v>928964</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A735">
+        <v>735</v>
+      </c>
+      <c r="B735" s="1">
+        <v>931918</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A736">
+        <v>736</v>
+      </c>
+      <c r="B736" s="1">
+        <v>935657</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A737">
+        <v>737</v>
+      </c>
+      <c r="B737" s="1">
+        <v>938841</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A738">
+        <v>738</v>
+      </c>
+      <c r="B738" s="1">
+        <v>942694</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A739">
+        <v>739</v>
+      </c>
+      <c r="B739" s="1">
+        <v>948295</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A740">
+        <v>740</v>
+      </c>
+      <c r="B740" s="1">
+        <v>951419</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A741">
+        <v>741</v>
+      </c>
+      <c r="B741" s="1">
+        <v>955083</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A742">
+        <v>742</v>
+      </c>
+      <c r="B742" s="1">
+        <v>958505</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A743">
+        <v>743</v>
+      </c>
+      <c r="B743" s="1">
+        <v>961674</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A744">
+        <v>744</v>
+      </c>
+      <c r="B744" s="1">
+        <v>967088</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A745">
+        <v>745</v>
+      </c>
+      <c r="B745" s="1">
+        <v>970262</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A746">
+        <v>746</v>
+      </c>
+      <c r="B746" s="1">
+        <v>995457</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A747">
+        <v>747</v>
+      </c>
+      <c r="B747" s="1">
+        <v>979606</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A748">
+        <v>748</v>
+      </c>
+      <c r="B748" s="1">
+        <v>982671</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A749">
+        <v>749</v>
+      </c>
+      <c r="B749" s="1">
+        <v>984962</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A750">
+        <v>750</v>
+      </c>
+      <c r="B750" s="1">
+        <v>989819</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A751">
+        <v>751</v>
+      </c>
+      <c r="B751" s="1">
+        <v>994331</v>
+      </c>
+    </row>
+    <row r="752" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A752">
+        <v>752</v>
+      </c>
+      <c r="B752" s="1">
+        <v>997264</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A753">
+        <v>753</v>
+      </c>
+      <c r="B753" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A754">
+        <v>754</v>
+      </c>
+      <c r="B754" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="755" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A755">
+        <v>755</v>
+      </c>
+      <c r="B755" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A756">
+        <v>756</v>
+      </c>
+      <c r="B756" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="757" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A757">
+        <v>757</v>
+      </c>
+      <c r="B757" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="758" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A758">
+        <v>758</v>
+      </c>
+      <c r="B758" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="759" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A759">
+        <v>759</v>
+      </c>
+      <c r="B759" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="760" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A760">
+        <v>760</v>
+      </c>
+      <c r="B760" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="761" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A761">
+        <v>761</v>
+      </c>
+      <c r="B761" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A762">
+        <v>762</v>
+      </c>
+      <c r="B762" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A763">
+        <v>763</v>
+      </c>
+      <c r="B763" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A764">
+        <v>764</v>
+      </c>
+      <c r="B764" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A765">
+        <v>765</v>
+      </c>
+      <c r="B765" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A766">
+        <v>766</v>
+      </c>
+      <c r="B766" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="767" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A767">
+        <v>767</v>
+      </c>
+      <c r="B767" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="768" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A768">
+        <v>768</v>
+      </c>
+      <c r="B768" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="769" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A769">
+        <v>769</v>
+      </c>
+      <c r="B769" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A770">
+        <v>770</v>
+      </c>
+      <c r="B770" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A771">
+        <v>771</v>
+      </c>
+      <c r="B771" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="772" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A772">
+        <v>772</v>
+      </c>
+      <c r="B772" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="773" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A773">
+        <v>773</v>
+      </c>
+      <c r="B773" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="774" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A774">
+        <v>774</v>
+      </c>
+      <c r="B774" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="775" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A775">
+        <v>775</v>
+      </c>
+      <c r="B775" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="776" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A776">
+        <v>776</v>
+      </c>
+      <c r="B776" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="777" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A777">
+        <v>777</v>
+      </c>
+      <c r="B777" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="778" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A778">
+        <v>778</v>
+      </c>
+      <c r="B778" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="779" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A779">
+        <v>779</v>
+      </c>
+      <c r="B779" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="780" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A780">
+        <v>780</v>
+      </c>
+      <c r="B780" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="781" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A781">
+        <v>781</v>
+      </c>
+      <c r="B781" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="782" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A782">
+        <v>782</v>
+      </c>
+      <c r="B782" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="783" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A783">
+        <v>783</v>
+      </c>
+      <c r="B783" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="784" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A784">
+        <v>784</v>
+      </c>
+      <c r="B784" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="785" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A785">
+        <v>785</v>
+      </c>
+      <c r="B785" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="786" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A786">
+        <v>786</v>
+      </c>
+      <c r="B786" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="787" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A787">
+        <v>787</v>
+      </c>
+      <c r="B787" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="788" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A788">
+        <v>788</v>
+      </c>
+      <c r="B788" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="789" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A789">
+        <v>789</v>
+      </c>
+      <c r="B789" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="790" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A790">
+        <v>790</v>
+      </c>
+      <c r="B790" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="791" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A791">
+        <v>791</v>
+      </c>
+      <c r="B791" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="792" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A792">
+        <v>792</v>
+      </c>
+      <c r="B792" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="793" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A793">
+        <v>793</v>
+      </c>
+      <c r="B793" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="794" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A794">
+        <v>794</v>
+      </c>
+      <c r="B794" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="795" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A795">
+        <v>795</v>
+      </c>
+      <c r="B795" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="796" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A796">
+        <v>796</v>
+      </c>
+      <c r="B796" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="797" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A797">
+        <v>797</v>
+      </c>
+      <c r="B797" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="798" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A798">
+        <v>798</v>
+      </c>
+      <c r="B798" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="799" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A799">
+        <v>799</v>
+      </c>
+      <c r="B799" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="800" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A800">
+        <v>800</v>
+      </c>
+      <c r="B800" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="801" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A801">
+        <v>801</v>
+      </c>
+      <c r="B801" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="802" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A802">
+        <v>802</v>
+      </c>
+      <c r="B802" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="803" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A803">
+        <v>803</v>
+      </c>
+      <c r="B803" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="804" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A804">
+        <v>804</v>
+      </c>
+      <c r="B804" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="805" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A805">
+        <v>805</v>
+      </c>
+      <c r="B805" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="806" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A806">
+        <v>806</v>
+      </c>
+      <c r="B806" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="807" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A807">
+        <v>807</v>
+      </c>
+      <c r="B807" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="808" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A808">
+        <v>808</v>
+      </c>
+      <c r="B808" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="809" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A809">
+        <v>809</v>
+      </c>
+      <c r="B809" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="810" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A810">
+        <v>810</v>
+      </c>
+      <c r="B810" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="811" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A811">
+        <v>811</v>
+      </c>
+      <c r="B811" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="812" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A812">
+        <v>812</v>
+      </c>
+      <c r="B812" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="813" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A813">
+        <v>813</v>
+      </c>
+      <c r="B813" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="814" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A814">
+        <v>814</v>
+      </c>
+      <c r="B814" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="815" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A815">
+        <v>815</v>
+      </c>
+      <c r="B815" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="816" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A816">
+        <v>816</v>
+      </c>
+      <c r="B816" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="817" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A817">
+        <v>817</v>
+      </c>
+      <c r="B817" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="818" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A818">
+        <v>818</v>
+      </c>
+      <c r="B818" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="819" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A819">
+        <v>819</v>
+      </c>
+      <c r="B819" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="820" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A820">
+        <v>820</v>
+      </c>
+      <c r="B820" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="821" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A821">
+        <v>821</v>
+      </c>
+      <c r="B821" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="822" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A822">
+        <v>822</v>
+      </c>
+      <c r="B822" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="823" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A823">
+        <v>823</v>
+      </c>
+      <c r="B823" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="824" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A824">
+        <v>824</v>
+      </c>
+      <c r="B824" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="825" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A825">
+        <v>825</v>
+      </c>
+      <c r="B825" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="826" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A826">
+        <v>826</v>
+      </c>
+      <c r="B826" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="827" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A827">
+        <v>827</v>
+      </c>
+      <c r="B827" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="828" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A828">
+        <v>828</v>
+      </c>
+      <c r="B828" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="829" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A829">
+        <v>829</v>
+      </c>
+      <c r="B829" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="830" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A830">
+        <v>830</v>
+      </c>
+      <c r="B830" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="831" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A831">
+        <v>831</v>
+      </c>
+      <c r="B831" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="832" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A832">
+        <v>832</v>
+      </c>
+      <c r="B832" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="833" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A833">
+        <v>833</v>
+      </c>
+      <c r="B833" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="834" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A834">
+        <v>834</v>
+      </c>
+      <c r="B834" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="835" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A835">
+        <v>835</v>
+      </c>
+      <c r="B835" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="836" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A836">
+        <v>836</v>
+      </c>
+      <c r="B836" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="837" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A837">
+        <v>837</v>
+      </c>
+      <c r="B837" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="838" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A838">
+        <v>838</v>
+      </c>
+      <c r="B838" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="839" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A839">
+        <v>839</v>
+      </c>
+      <c r="B839" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="840" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A840">
+        <v>840</v>
+      </c>
+      <c r="B840" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="841" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A841">
+        <v>841</v>
+      </c>
+      <c r="B841" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="842" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A842">
+        <v>842</v>
+      </c>
+      <c r="B842" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="843" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A843">
+        <v>843</v>
+      </c>
+      <c r="B843" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="844" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A844">
+        <v>844</v>
+      </c>
+      <c r="B844" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="845" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A845">
+        <v>845</v>
+      </c>
+      <c r="B845" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="846" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A846">
+        <v>846</v>
+      </c>
+      <c r="B846" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="847" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A847">
+        <v>847</v>
+      </c>
+      <c r="B847" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="848" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A848">
+        <v>848</v>
+      </c>
+      <c r="B848" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="849" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A849">
+        <v>849</v>
+      </c>
+      <c r="B849" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="850" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A850">
+        <v>850</v>
+      </c>
+      <c r="B850" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="851" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A851">
+        <v>851</v>
+      </c>
+      <c r="B851" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="852" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A852">
+        <v>852</v>
+      </c>
+      <c r="B852" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="853" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A853">
+        <v>853</v>
+      </c>
+      <c r="B853" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="854" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A854">
+        <v>854</v>
+      </c>
+      <c r="B854" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="855" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A855">
+        <v>855</v>
+      </c>
+      <c r="B855" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="856" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A856">
+        <v>856</v>
+      </c>
+      <c r="B856" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="857" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A857">
+        <v>857</v>
+      </c>
+      <c r="B857" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="858" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A858">
+        <v>858</v>
+      </c>
+      <c r="B858" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="859" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A859">
+        <v>859</v>
+      </c>
+      <c r="B859" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="860" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A860">
+        <v>860</v>
+      </c>
+      <c r="B860" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="861" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A861">
+        <v>861</v>
+      </c>
+      <c r="B861" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="862" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A862">
+        <v>862</v>
+      </c>
+      <c r="B862" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="863" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A863">
+        <v>863</v>
+      </c>
+      <c r="B863" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="864" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A864">
+        <v>864</v>
+      </c>
+      <c r="B864" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="865" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A865">
+        <v>865</v>
+      </c>
+      <c r="B865" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="866" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A866">
+        <v>866</v>
+      </c>
+      <c r="B866" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="867" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A867">
+        <v>867</v>
+      </c>
+      <c r="B867" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="868" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A868">
+        <v>868</v>
+      </c>
+      <c r="B868" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="869" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A869">
+        <v>869</v>
+      </c>
+      <c r="B869" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="870" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A870">
+        <v>870</v>
+      </c>
+      <c r="B870" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="871" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A871">
+        <v>871</v>
+      </c>
+      <c r="B871" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="872" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A872">
+        <v>872</v>
+      </c>
+      <c r="B872" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="873" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A873">
+        <v>873</v>
+      </c>
+      <c r="B873" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="874" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A874">
+        <v>874</v>
+      </c>
+      <c r="B874" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="875" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A875">
+        <v>875</v>
+      </c>
+      <c r="B875" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="876" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A876">
+        <v>876</v>
+      </c>
+      <c r="B876" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="877" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A877">
+        <v>877</v>
+      </c>
+      <c r="B877" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="878" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A878">
+        <v>878</v>
+      </c>
+      <c r="B878" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="879" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A879">
+        <v>879</v>
+      </c>
+      <c r="B879" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="880" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A880">
+        <v>880</v>
+      </c>
+      <c r="B880" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="881" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A881">
+        <v>881</v>
+      </c>
+      <c r="B881" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="882" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A882">
+        <v>882</v>
+      </c>
+      <c r="B882" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="883" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A883">
+        <v>883</v>
+      </c>
+      <c r="B883" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="884" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A884">
+        <v>884</v>
+      </c>
+      <c r="B884" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="885" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A885">
+        <v>885</v>
+      </c>
+      <c r="B885" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="886" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A886">
+        <v>886</v>
+      </c>
+      <c r="B886" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="887" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A887">
+        <v>887</v>
+      </c>
+      <c r="B887" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="888" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A888">
+        <v>888</v>
+      </c>
+      <c r="B888" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="889" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A889">
+        <v>889</v>
+      </c>
+      <c r="B889" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="890" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A890">
+        <v>890</v>
+      </c>
+      <c r="B890" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="891" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A891">
+        <v>891</v>
+      </c>
+      <c r="B891" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="892" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A892">
+        <v>892</v>
+      </c>
+      <c r="B892" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="893" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A893">
+        <v>893</v>
+      </c>
+      <c r="B893" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="894" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A894">
+        <v>894</v>
+      </c>
+      <c r="B894" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="895" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A895">
+        <v>895</v>
+      </c>
+      <c r="B895" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="896" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A896">
+        <v>896</v>
+      </c>
+      <c r="B896" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="897" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A897">
+        <v>897</v>
+      </c>
+      <c r="B897" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="898" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A898">
+        <v>898</v>
+      </c>
+      <c r="B898" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="899" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A899">
+        <v>899</v>
+      </c>
+      <c r="B899" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="900" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A900">
+        <v>900</v>
+      </c>
+      <c r="B900" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="901" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A901">
+        <v>901</v>
+      </c>
+      <c r="B901" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="902" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A902">
+        <v>902</v>
+      </c>
+      <c r="B902" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="903" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A903">
+        <v>903</v>
+      </c>
+      <c r="B903" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="904" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A904">
+        <v>904</v>
+      </c>
+      <c r="B904" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="905" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A905">
+        <v>905</v>
+      </c>
+      <c r="B905" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="906" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A906">
+        <v>906</v>
+      </c>
+      <c r="B906" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="907" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A907">
+        <v>907</v>
+      </c>
+      <c r="B907">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="908" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A908">
+        <v>908</v>
+      </c>
+      <c r="B908" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="909" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A909">
+        <v>909</v>
+      </c>
+      <c r="B909" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="910" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A910">
+        <v>910</v>
+      </c>
+      <c r="B910" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="911" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A911">
+        <v>911</v>
+      </c>
+      <c r="B911" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="912" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A912">
+        <v>912</v>
+      </c>
+      <c r="B912" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="913" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A913">
+        <v>913</v>
+      </c>
+      <c r="B913" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="914" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A914">
+        <v>914</v>
+      </c>
+      <c r="B914" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="915" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A915">
+        <v>915</v>
+      </c>
+      <c r="B915" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="916" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A916">
+        <v>916</v>
+      </c>
+      <c r="B916" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="917" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A917">
+        <v>917</v>
+      </c>
+      <c r="B917" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="918" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A918">
+        <v>918</v>
+      </c>
+      <c r="B918" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="919" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A919">
+        <v>919</v>
+      </c>
+      <c r="B919" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="920" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A920">
+        <v>920</v>
+      </c>
+      <c r="B920" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="921" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A921">
+        <v>921</v>
+      </c>
+      <c r="B921" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="922" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A922">
+        <v>922</v>
+      </c>
+      <c r="B922" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="923" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A923">
+        <v>923</v>
+      </c>
+      <c r="B923" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="924" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A924">
+        <v>924</v>
+      </c>
+      <c r="B924" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="925" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A925">
+        <v>925</v>
+      </c>
+      <c r="B925" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="926" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A926">
+        <v>926</v>
+      </c>
+      <c r="B926" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="927" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A927">
+        <v>927</v>
+      </c>
+      <c r="B927" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="928" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A928">
+        <v>928</v>
+      </c>
+      <c r="B928" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="929" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A929">
+        <v>929</v>
+      </c>
+      <c r="B929" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="930" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A930">
+        <v>930</v>
+      </c>
+      <c r="B930" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="931" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A931">
+        <v>931</v>
+      </c>
+      <c r="B931" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="932" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A932">
+        <v>932</v>
+      </c>
+      <c r="B932" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="933" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A933">
+        <v>933</v>
+      </c>
+      <c r="B933" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="934" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A934">
+        <v>934</v>
+      </c>
+      <c r="B934" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="935" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A935">
+        <v>935</v>
+      </c>
+      <c r="B935" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="936" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A936">
+        <v>936</v>
+      </c>
+      <c r="B936" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="937" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A937">
+        <v>937</v>
+      </c>
+      <c r="B937" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="938" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A938">
+        <v>938</v>
+      </c>
+      <c r="B938" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="939" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A939">
+        <v>939</v>
+      </c>
+      <c r="B939" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="940" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A940">
+        <v>940</v>
+      </c>
+      <c r="B940" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="941" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A941">
+        <v>941</v>
+      </c>
+      <c r="B941" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="942" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A942">
+        <v>942</v>
+      </c>
+      <c r="B942" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="943" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A943">
+        <v>943</v>
+      </c>
+      <c r="B943" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="944" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A944">
+        <v>944</v>
+      </c>
+      <c r="B944" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="945" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A945">
+        <v>945</v>
+      </c>
+      <c r="B945" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="946" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A946">
+        <v>946</v>
+      </c>
+      <c r="B946" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="947" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A947">
+        <v>947</v>
+      </c>
+      <c r="B947" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="948" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A948">
+        <v>948</v>
+      </c>
+      <c r="B948" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="949" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A949">
+        <v>949</v>
+      </c>
+      <c r="B949">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="950" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A950">
+        <v>950</v>
+      </c>
+      <c r="B950" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="951" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A951">
+        <v>951</v>
+      </c>
+      <c r="B951" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="952" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A952">
+        <v>952</v>
+      </c>
+      <c r="B952" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="953" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A953">
+        <v>953</v>
+      </c>
+      <c r="B953" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="954" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A954">
+        <v>954</v>
+      </c>
+      <c r="B954" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="955" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A955">
+        <v>955</v>
+      </c>
+      <c r="B955" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="956" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A956">
+        <v>956</v>
+      </c>
+      <c r="B956" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="957" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A957">
+        <v>957</v>
+      </c>
+      <c r="B957" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="958" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A958">
+        <v>958</v>
+      </c>
+      <c r="B958" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="959" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A959">
+        <v>959</v>
+      </c>
+      <c r="B959" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="960" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A960">
+        <v>960</v>
+      </c>
+      <c r="B960" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="961" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A961">
+        <v>961</v>
+      </c>
+      <c r="B961" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="962" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A962">
+        <v>962</v>
+      </c>
+      <c r="B962" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="963" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A963">
+        <v>963</v>
+      </c>
+      <c r="B963" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="964" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A964">
+        <v>964</v>
+      </c>
+      <c r="B964" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="965" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A965">
+        <v>965</v>
+      </c>
+      <c r="B965" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="966" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A966">
+        <v>966</v>
+      </c>
+      <c r="B966" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="967" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A967">
+        <v>967</v>
+      </c>
+      <c r="B967" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="968" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A968">
+        <v>968</v>
+      </c>
+      <c r="B968" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="969" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A969">
+        <v>969</v>
+      </c>
+      <c r="B969" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="970" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A970">
+        <v>970</v>
+      </c>
+      <c r="B970" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="971" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A971">
+        <v>971</v>
+      </c>
+      <c r="B971" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="972" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A972">
+        <v>972</v>
+      </c>
+      <c r="B972" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="973" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A973">
+        <v>973</v>
+      </c>
+      <c r="B973" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="974" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A974">
+        <v>974</v>
+      </c>
+      <c r="B974" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="975" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A975">
+        <v>975</v>
+      </c>
+      <c r="B975" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="976" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A976">
+        <v>976</v>
+      </c>
+      <c r="B976" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="977" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A977">
+        <v>977</v>
+      </c>
+      <c r="B977" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="978" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A978">
+        <v>978</v>
+      </c>
+      <c r="B978" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="979" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A979">
+        <v>979</v>
+      </c>
+      <c r="B979" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="980" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A980">
+        <v>980</v>
+      </c>
+      <c r="B980" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="981" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A981">
+        <v>981</v>
+      </c>
+      <c r="B981" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="982" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A982">
+        <v>982</v>
+      </c>
+      <c r="B982" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="983" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A983">
+        <v>983</v>
+      </c>
+      <c r="B983" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="984" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A984">
+        <v>984</v>
+      </c>
+      <c r="B984" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="985" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A985">
+        <v>985</v>
+      </c>
+      <c r="B985" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="986" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A986">
+        <v>986</v>
+      </c>
+      <c r="B986" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="987" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A987">
+        <v>987</v>
+      </c>
+      <c r="B987" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="988" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A988">
+        <v>988</v>
+      </c>
+      <c r="B988" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="989" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A989">
+        <v>989</v>
+      </c>
+      <c r="B989" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="990" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A990">
+        <v>990</v>
+      </c>
+      <c r="B990" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="991" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A991">
+        <v>991</v>
+      </c>
+      <c r="B991" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="992" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A992">
+        <v>992</v>
+      </c>
+      <c r="B992" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="993" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A993">
+        <v>993</v>
+      </c>
+      <c r="B993" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="994" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A994">
+        <v>994</v>
+      </c>
+      <c r="B994" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="995" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A995">
+        <v>995</v>
+      </c>
+      <c r="B995" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="996" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A996">
+        <v>996</v>
+      </c>
+      <c r="B996" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="997" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A997">
+        <v>997</v>
+      </c>
+      <c r="B997" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="998" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A998">
+        <v>998</v>
+      </c>
+      <c r="B998" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="999" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A999">
+        <v>999</v>
+      </c>
+      <c r="B999" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1000">
+        <v>1000</v>
+      </c>
+      <c r="B1000" t="s">
+        <v>381</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Factorizacion.xlsx
+++ b/Factorizacion.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="80" windowWidth="18900" windowHeight="7340"/>
+    <workbookView xWindow="160" yWindow="80" windowWidth="18900" windowHeight="7340" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>cholesky</t>
   </si>
@@ -33,6 +33,12 @@
   </si>
   <si>
     <t>atp</t>
+  </si>
+  <si>
+    <t>wp</t>
+  </si>
+  <si>
+    <t>cmm</t>
   </si>
 </sst>
 </file>
@@ -434,6 +440,2698 @@
         <c:crossAx val="8207744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-AR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja5!$B$2:$B$431</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="430"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.93258399999999997</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.85135099999999997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.83333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.83333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.82558100000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.774648</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.76388900000000004</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.75308600000000003</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.74324299999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.72151900000000002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.71666700000000005</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.71428599999999998</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.67346899999999998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.66666700000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.66666700000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.66666700000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.66666700000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.66666700000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.66666700000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.66666700000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.66666700000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.66666700000000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.66666700000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.66666700000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.66666700000000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.66037699999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.65714300000000003</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.65384600000000004</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.64814799999999995</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.64285700000000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.641791</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.609375</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.60317500000000002</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.59523800000000004</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.59154899999999999</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.58928599999999998</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.58823499999999995</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.57894699999999999</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.57777800000000001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.57142899999999996</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.56923100000000004</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.56818199999999996</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.5625</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.56140400000000001</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.55555600000000005</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.55172399999999999</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.55172399999999999</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.55072500000000002</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.54901999999999995</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.54545500000000002</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.538462</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.538462</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.53333299999999995</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.52727299999999999</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.52631600000000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.52500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.52083299999999999</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.519231</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.50909099999999996</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.48936200000000002</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.48888900000000002</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.48275899999999999</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.48148099999999999</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.47368399999999999</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.47058800000000001</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.466667</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.466667</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.46341500000000002</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.46341500000000002</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.461538</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.461538</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.45945900000000001</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.45833299999999999</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.45454499999999998</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.45454499999999998</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.45161299999999999</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.45097999999999999</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.44736799999999999</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.44444400000000001</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.44444400000000001</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.44444400000000001</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.44185999999999998</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.43589699999999998</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.42857099999999998</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.42857099999999998</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.42553200000000002</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.42499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.42105300000000001</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.41935499999999998</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0.41666700000000001</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.41666700000000001</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0.41176499999999999</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0.41176499999999999</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0.41025600000000001</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0.40625</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0.38888899999999998</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0.38461499999999998</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0.38461499999999998</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0.38095200000000001</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0.368421</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0.36363600000000001</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0.36363600000000001</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0.35897400000000002</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0.35714299999999999</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0.34375</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>0.31578899999999999</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>0.31428600000000001</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>0.3125</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>0.31034499999999998</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>0.30769200000000002</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>0.30769200000000002</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>0.30769200000000002</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>0.30769200000000002</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>0.28571400000000002</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>0.28571400000000002</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>0.27777800000000002</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>0.272727</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>0.235294</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>0.230769</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>0.230769</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>0.230769</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>0.214286</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>0.20833299999999999</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>0.18181800000000001</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>0.16666700000000001</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>0.16666700000000001</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>0.16666700000000001</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>0.16666700000000001</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>0.16666700000000001</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>0.15789500000000001</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>0.14285700000000001</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>0.14285700000000001</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>0.14285700000000001</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>0.14285700000000001</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>0.14285700000000001</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja5!$C$2:$C$431</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="430"/>
+                <c:pt idx="0">
+                  <c:v>1.31246</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.21594</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.19198</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.08693</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.07453</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0648</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.05755</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.05274</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.03691</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.96714800000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.96364399999999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.95302500000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.92513000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.923095</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.91786199999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.91683499999999996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.91281400000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.88420699999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.86948899999999996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.86770000000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.86527900000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.86367899999999997</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.85962899999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.85431100000000004</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.84828599999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.84071499999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.83727799999999997</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.83146399999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.82085799999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.81365500000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.81158399999999997</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.81081499999999995</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.808863</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.79835199999999995</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.79387300000000005</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.79313599999999995</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.78858200000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.78242400000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.77993900000000005</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.77667299999999995</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.77650200000000003</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.77282099999999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.77158400000000005</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.765019</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.75609400000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.75397099999999995</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.75329500000000005</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.75082000000000004</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.74748700000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.74741299999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.74536800000000003</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.74414000000000002</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.74321999999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.74261200000000005</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.73676600000000003</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.73601399999999995</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.72833000000000003</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.72684199999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.72487699999999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.72145300000000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.71763100000000002</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.71672199999999997</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.71402699999999997</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.71353100000000003</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.70836399999999999</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.70765500000000003</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.70733800000000002</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.707125</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.70492100000000002</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.70263299999999995</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.70197799999999999</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.701677</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.70133199999999996</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.70095799999999997</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.69967500000000005</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.69958799999999999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.69922200000000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.69483499999999998</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.692743</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.69005300000000003</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.68894599999999995</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.68794</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.68734499999999998</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.68586599999999998</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.68072699999999997</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.68044700000000002</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.67896800000000002</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.67771199999999998</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.67491599999999996</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.67329300000000003</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.67211699999999996</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.67054800000000003</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.66978199999999999</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.66835199999999995</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.66535699999999998</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.66179699999999997</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.66029400000000005</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.65986199999999995</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.65481100000000003</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.653922</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.65348799999999996</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.65185099999999996</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.65160799999999997</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.65155700000000005</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.65060499999999999</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.64948399999999995</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.64905999999999997</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.64838499999999999</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.64785499999999996</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.64659199999999994</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.64228399999999997</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.64219199999999999</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.63979399999999997</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.63978100000000004</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.63755099999999998</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.63734999999999997</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.633436</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.63202800000000003</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.63083900000000004</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.62825699999999995</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.62806899999999999</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.62722800000000001</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.62645399999999996</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.62440200000000001</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.62316300000000002</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.622224</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.62038499999999996</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.61987599999999998</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.61786700000000006</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.61357200000000001</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.61129800000000001</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.60928099999999996</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.60592999999999997</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.60395299999999996</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.60386099999999998</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.60386099999999998</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.60376099999999999</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.60201400000000005</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.60174300000000003</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.59945099999999996</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.59903600000000001</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.59808399999999995</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.59795799999999999</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.59771200000000002</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.59771200000000002</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.597113</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.59692500000000004</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.59685500000000002</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.59658699999999998</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.59563100000000002</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.59559099999999998</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.59462400000000004</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.59446699999999997</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.59386399999999995</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.59384400000000004</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.59331299999999998</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.591858</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.59144399999999997</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.59094000000000002</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.59052800000000005</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.59029299999999996</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.58969400000000005</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.58833999999999997</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.58702500000000002</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.58465699999999998</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.58434799999999998</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.58427099999999998</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.58391499999999996</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.58316299999999999</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.581789</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.581789</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.581789</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.58152000000000004</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.57867100000000005</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.57777199999999995</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.57753600000000005</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.57602500000000001</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.57566700000000004</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0.57545100000000005</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.57463699999999995</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0.57381800000000005</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0.57254400000000005</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0.572241</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0.57132499999999997</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0.57023999999999997</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0.56896400000000003</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0.56830700000000001</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0.56754400000000005</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0.56722600000000001</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0.56711100000000003</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0.56711100000000003</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0.56698599999999999</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0.56698599999999999</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0.56643200000000005</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0.56640699999999999</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0.56494500000000003</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0.56489999999999996</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0.56457299999999999</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0.56396999999999997</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0.56298199999999998</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0.56264700000000001</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0.56264700000000001</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0.56150199999999995</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0.56039600000000001</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0.55955699999999997</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0.55888000000000004</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0.55769000000000002</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0.55684900000000004</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0.55659400000000003</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>0.55637300000000001</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0.55553799999999998</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>0.55432700000000001</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0.55393199999999998</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>0.55364899999999995</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>0.55343100000000001</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>0.55164599999999997</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>0.55143799999999998</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>0.55143799999999998</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>0.55061700000000002</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>0.55051300000000003</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>0.54968700000000004</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>0.54946200000000001</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>0.54636700000000005</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>0.54361300000000001</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>0.54361300000000001</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>0.54240900000000003</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>0.54220900000000005</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>0.54199399999999998</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>0.54174800000000001</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>0.54152500000000003</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>0.54074100000000003</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>0.540713</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>0.53734999999999999</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>0.53678899999999996</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>0.53642699999999999</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>0.53458700000000003</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>0.533914</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>0.53389799999999998</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>0.53329300000000002</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>0.53237100000000004</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>0.532308</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>0.52938600000000002</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>0.52929400000000004</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>0.52921600000000002</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>0.52898599999999996</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>0.52876500000000004</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>0.52811600000000003</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>0.52808999999999995</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>0.527972</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>0.527173</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>0.527173</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>0.52644199999999997</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>0.52592399999999995</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>0.52584500000000001</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>0.52534199999999998</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>0.52341300000000002</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>0.52308200000000005</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>0.52263000000000004</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>0.52214400000000005</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>0.52163300000000001</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>0.52152399999999999</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>0.521069</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>0.52053499999999997</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>0.52013200000000004</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>0.52006300000000005</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>0.51769600000000005</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>0.51614300000000002</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>0.51304899999999998</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>0.51271100000000003</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>0.51210199999999995</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>0.51141800000000004</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>0.51046999999999998</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>0.50999000000000005</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>0.509857</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>0.50881399999999999</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>0.50881399999999999</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>0.50754299999999997</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>0.50443400000000005</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>0.50106399999999995</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>0.500834</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>0.50035499999999999</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>0.50008699999999995</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>0.499913</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>0.49973800000000002</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>0.49962600000000001</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>0.49956099999999998</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>0.49765500000000001</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>0.496784</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>0.49567800000000001</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>0.495062</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>0.49359599999999998</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>0.49296499999999999</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>0.49275200000000002</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>0.49044100000000002</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>0.48885200000000001</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>0.48703400000000002</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>0.48657400000000001</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>0.48599100000000001</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>0.48518699999999998</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>0.48280299999999998</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>0.47934900000000003</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>0.47825600000000001</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>0.47825600000000001</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>0.47825600000000001</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>0.47428799999999999</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>0.47156300000000001</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>0.47132200000000002</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>0.47122700000000001</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>0.47106100000000001</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>0.47056999999999999</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>0.46895199999999998</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>0.46712700000000001</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>0.46666600000000003</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>0.466028</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>0.46236699999999997</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>0.46135399999999999</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>0.45873000000000003</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>0.45777400000000001</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>0.45754899999999998</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>0.45669399999999999</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>0.456208</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>0.45155200000000001</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>0.45153700000000002</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>0.45131700000000002</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>0.45004100000000002</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>0.44603199999999998</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>0.44552700000000001</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>0.44283400000000001</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>0.44228899999999999</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>0.44215300000000002</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>0.442112</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>0.43838199999999999</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>0.43804599999999999</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>0.43631300000000001</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>0.43476900000000002</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>0.43473400000000001</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>0.43473400000000001</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>0.434114</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>0.42962899999999998</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>0.428033</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>0.42674800000000002</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>0.42335099999999998</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>0.42268</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>0.41561100000000001</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>0.41434100000000001</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>0.40688600000000003</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>0.40444200000000002</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>0.404333</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>0.40361200000000003</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>0.403501</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>0.40313199999999999</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>0.40212300000000001</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>0.40076200000000001</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>0.39999699999999999</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>0.399057</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>0.39604400000000001</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>0.39594099999999999</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>0.39221800000000001</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>0.39040200000000003</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>0.386021</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>0.37713999999999998</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>0.37699100000000002</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>0.37584499999999998</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>0.37551800000000002</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>0.37243900000000002</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>0.36870700000000001</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>0.36839</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>0.36162499999999997</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>0.35957499999999998</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>0.35722199999999998</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>0.35639599999999999</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>0.35012399999999999</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>0.34200700000000001</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>0.33763700000000002</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>0.33641799999999999</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>0.334285</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>0.33360800000000002</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>0.33140199999999997</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>0.33033499999999999</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>0.32827699999999999</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>0.327463</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>0.32645800000000003</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>0.32488899999999998</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>0.31993100000000002</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>0.31968999999999997</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>0.31810500000000003</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>0.31755299999999997</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>0.31562600000000002</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>0.31172499999999997</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>0.30999300000000002</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>0.306923</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>0.304203</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>0.29804700000000001</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>0.29798000000000002</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>0.29410700000000001</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>0.28961799999999999</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>0.28734999999999999</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>0.28422999999999998</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>0.28409899999999999</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>0.28327400000000003</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>0.282941</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>0.28153299999999998</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>0.280499</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>0.277584</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>0.26804099999999997</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>0.265656</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>0.258077</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>0.25748500000000002</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>0.23708599999999999</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>0.23461199999999999</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>0.23455799999999999</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>0.23274500000000001</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>0.206368</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>0.19293399999999999</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>0.19018199999999999</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>0.15806400000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="196946176"/>
+        <c:axId val="238501888"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="196946176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="238501888"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="238501888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="196946176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -32512,6 +35210,367 @@
         <c:crossAx val="195233280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-AR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-AR"/>
+              <a:t>NBA - Comparación</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-AR" baseline="0"/>
+              <a:t> de rankings</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>WP</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja4!$B$2:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0.90909099999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.850746</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.712121</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.68181800000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.67164199999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.63636400000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.58209</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.58209</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.58209</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.567164</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.56060600000000005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.53731300000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.514706</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.50769200000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.507463</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.507463</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.507463</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.47761199999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.46969699999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.43939400000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.42647099999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.41176499999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.41176499999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.39393899999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.36363600000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.31343300000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.283582</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.26865699999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.20588200000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.134328</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>CMM</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja4!$C$2:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0.82578399999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.74872399999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.64408900000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.61098399999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.60041800000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.58133000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.52164299999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.509876</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.50926400000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.50773900000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.50293500000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.49168200000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.46764699999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.46002100000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.45572099999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.446546</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.44558199999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.444743</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.434585</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.38608300000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.38399699999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.372473</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.36566900000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.36434800000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.33595799999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.27835399999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.25744299999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.24906700000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.18806300000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.109233</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="192494976"/>
+        <c:axId val="192538112"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="192494976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-AR"/>
+                  <a:t>Equipos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="192538112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="192538112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-AR"/>
+                  <a:t>Puntaje</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="192494976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -32781,6 +35840,78 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="1 Gráfico"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>669924</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>596899</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="2 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="2 Gráfico"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -33089,7 +36220,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
@@ -50094,40 +53225,3740 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B2">
+        <v>0.90909099999999998</v>
+      </c>
+      <c r="C2">
+        <v>0.82578399999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B3">
+        <v>0.850746</v>
+      </c>
+      <c r="C3">
+        <v>0.74872399999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B4">
+        <v>0.712121</v>
+      </c>
+      <c r="C4">
+        <v>0.64408900000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B5">
+        <v>0.68181800000000004</v>
+      </c>
+      <c r="C5">
+        <v>0.61098399999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B6">
+        <v>0.67164199999999996</v>
+      </c>
+      <c r="C6">
+        <v>0.60041800000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B7">
+        <v>0.63636400000000004</v>
+      </c>
+      <c r="C7">
+        <v>0.58133000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B8">
+        <v>0.58209</v>
+      </c>
+      <c r="C8">
+        <v>0.52164299999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B9">
+        <v>0.58209</v>
+      </c>
+      <c r="C9">
+        <v>0.509876</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B10">
+        <v>0.58209</v>
+      </c>
+      <c r="C10">
+        <v>0.50926400000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B11">
+        <v>0.567164</v>
+      </c>
+      <c r="C11">
+        <v>0.50773900000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B12">
+        <v>0.56060600000000005</v>
+      </c>
+      <c r="C12">
+        <v>0.50293500000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B13">
+        <v>0.53731300000000004</v>
+      </c>
+      <c r="C13">
+        <v>0.49168200000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B14">
+        <v>0.514706</v>
+      </c>
+      <c r="C14">
+        <v>0.46764699999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B15">
+        <v>0.50769200000000003</v>
+      </c>
+      <c r="C15">
+        <v>0.46002100000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B16">
+        <v>0.507463</v>
+      </c>
+      <c r="C16">
+        <v>0.45572099999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B17">
+        <v>0.507463</v>
+      </c>
+      <c r="C17">
+        <v>0.446546</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B18">
+        <v>0.507463</v>
+      </c>
+      <c r="C18">
+        <v>0.44558199999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B19">
+        <v>0.47761199999999998</v>
+      </c>
+      <c r="C19">
+        <v>0.444743</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B20">
+        <v>0.46969699999999998</v>
+      </c>
+      <c r="C20">
+        <v>0.434585</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B21">
+        <v>0.43939400000000001</v>
+      </c>
+      <c r="C21">
+        <v>0.38608300000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B22">
+        <v>0.42647099999999999</v>
+      </c>
+      <c r="C22">
+        <v>0.38399699999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B23">
+        <v>0.41176499999999999</v>
+      </c>
+      <c r="C23">
+        <v>0.372473</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B24">
+        <v>0.41176499999999999</v>
+      </c>
+      <c r="C24">
+        <v>0.36566900000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B25">
+        <v>0.39393899999999998</v>
+      </c>
+      <c r="C25">
+        <v>0.36434800000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B26">
+        <v>0.36363600000000001</v>
+      </c>
+      <c r="C26">
+        <v>0.33595799999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B27">
+        <v>0.31343300000000002</v>
+      </c>
+      <c r="C27">
+        <v>0.27835399999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B28">
+        <v>0.283582</v>
+      </c>
+      <c r="C28">
+        <v>0.25744299999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B29">
+        <v>0.26865699999999998</v>
+      </c>
+      <c r="C29">
+        <v>0.24906700000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B30">
+        <v>0.20588200000000001</v>
+      </c>
+      <c r="C30">
+        <v>0.18806300000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B31">
+        <v>0.134328</v>
+      </c>
+      <c r="C31">
+        <v>0.109233</v>
+      </c>
     </row>
   </sheetData>
+  <sortState ref="C2:C31">
+    <sortCondition descending="1" ref="C2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C431"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>4</v>
       </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1.31246</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1.21594</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1.19198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1.08693</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1.07453</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1.0648</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1.05755</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1.05274</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1.03691</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>0.96714800000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>0.96364399999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>0.95302500000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0.92513000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>0.923095</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>0.91786199999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>0.91683499999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>0.91281400000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>0.88420699999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>0.86948899999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>0.86770000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>0.86527900000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>0.86367899999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>0.85962899999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>0.85431100000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>0.84828599999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>0.84071499999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B28">
+        <v>0.93258399999999997</v>
+      </c>
+      <c r="C28">
+        <v>0.83727799999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B29">
+        <v>0.85135099999999997</v>
+      </c>
+      <c r="C29">
+        <v>0.83146399999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B30">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="C30">
+        <v>0.82085799999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B31">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="C31">
+        <v>0.81365500000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B32">
+        <v>0.82558100000000001</v>
+      </c>
+      <c r="C32">
+        <v>0.81158399999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B33">
+        <v>0.8</v>
+      </c>
+      <c r="C33">
+        <v>0.81081499999999995</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B34">
+        <v>0.774648</v>
+      </c>
+      <c r="C34">
+        <v>0.808863</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B35">
+        <v>0.76388900000000004</v>
+      </c>
+      <c r="C35">
+        <v>0.79835199999999995</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B36">
+        <v>0.75308600000000003</v>
+      </c>
+      <c r="C36">
+        <v>0.79387300000000005</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B37">
+        <v>0.75</v>
+      </c>
+      <c r="C37">
+        <v>0.79313599999999995</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B38">
+        <v>0.75</v>
+      </c>
+      <c r="C38">
+        <v>0.78858200000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B39">
+        <v>0.75</v>
+      </c>
+      <c r="C39">
+        <v>0.78242400000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B40">
+        <v>0.75</v>
+      </c>
+      <c r="C40">
+        <v>0.77993900000000005</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B41">
+        <v>0.75</v>
+      </c>
+      <c r="C41">
+        <v>0.77667299999999995</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B42">
+        <v>0.74324299999999999</v>
+      </c>
+      <c r="C42">
+        <v>0.77650200000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B43">
+        <v>0.72151900000000002</v>
+      </c>
+      <c r="C43">
+        <v>0.77282099999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B44">
+        <v>0.71666700000000005</v>
+      </c>
+      <c r="C44">
+        <v>0.77158400000000005</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B45">
+        <v>0.71428599999999998</v>
+      </c>
+      <c r="C45">
+        <v>0.765019</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B46">
+        <v>0.67346899999999998</v>
+      </c>
+      <c r="C46">
+        <v>0.75609400000000004</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B47">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="C47">
+        <v>0.75397099999999995</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B48">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="C48">
+        <v>0.75329500000000005</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B49">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="C49">
+        <v>0.75082000000000004</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B50">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="C50">
+        <v>0.74748700000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B51">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="C51">
+        <v>0.74741299999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B52">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="C52">
+        <v>0.74536800000000003</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B53">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="C53">
+        <v>0.74414000000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B54">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="C54">
+        <v>0.74321999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B55">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="C55">
+        <v>0.74261200000000005</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B56">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="C56">
+        <v>0.73676600000000003</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B57">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="C57">
+        <v>0.73601399999999995</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B58">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="C58">
+        <v>0.72833000000000003</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B59">
+        <v>0.66037699999999999</v>
+      </c>
+      <c r="C59">
+        <v>0.72684199999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B60">
+        <v>0.65714300000000003</v>
+      </c>
+      <c r="C60">
+        <v>0.72487699999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B61">
+        <v>0.65384600000000004</v>
+      </c>
+      <c r="C61">
+        <v>0.72145300000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B62">
+        <v>0.64814799999999995</v>
+      </c>
+      <c r="C62">
+        <v>0.71763100000000002</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B63">
+        <v>0.64285700000000001</v>
+      </c>
+      <c r="C63">
+        <v>0.71672199999999997</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B64">
+        <v>0.641791</v>
+      </c>
+      <c r="C64">
+        <v>0.71402699999999997</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B65">
+        <v>0.609375</v>
+      </c>
+      <c r="C65">
+        <v>0.71353100000000003</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B66">
+        <v>0.60317500000000002</v>
+      </c>
+      <c r="C66">
+        <v>0.70836399999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B67">
+        <v>0.6</v>
+      </c>
+      <c r="C67">
+        <v>0.70765500000000003</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B68">
+        <v>0.6</v>
+      </c>
+      <c r="C68">
+        <v>0.70733800000000002</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B69">
+        <v>0.6</v>
+      </c>
+      <c r="C69">
+        <v>0.707125</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B70">
+        <v>0.6</v>
+      </c>
+      <c r="C70">
+        <v>0.70492100000000002</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B71">
+        <v>0.6</v>
+      </c>
+      <c r="C71">
+        <v>0.70263299999999995</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B72">
+        <v>0.6</v>
+      </c>
+      <c r="C72">
+        <v>0.70197799999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B73">
+        <v>0.6</v>
+      </c>
+      <c r="C73">
+        <v>0.701677</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B74">
+        <v>0.59523800000000004</v>
+      </c>
+      <c r="C74">
+        <v>0.70133199999999996</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B75">
+        <v>0.59154899999999999</v>
+      </c>
+      <c r="C75">
+        <v>0.70095799999999997</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B76">
+        <v>0.58928599999999998</v>
+      </c>
+      <c r="C76">
+        <v>0.69967500000000005</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B77">
+        <v>0.58823499999999995</v>
+      </c>
+      <c r="C77">
+        <v>0.69958799999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B78">
+        <v>0.57894699999999999</v>
+      </c>
+      <c r="C78">
+        <v>0.69922200000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B79">
+        <v>0.57777800000000001</v>
+      </c>
+      <c r="C79">
+        <v>0.69483499999999998</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B80">
+        <v>0.57142899999999996</v>
+      </c>
+      <c r="C80">
+        <v>0.692743</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B81">
+        <v>0.56923100000000004</v>
+      </c>
+      <c r="C81">
+        <v>0.69005300000000003</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B82">
+        <v>0.56818199999999996</v>
+      </c>
+      <c r="C82">
+        <v>0.68894599999999995</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B83">
+        <v>0.5625</v>
+      </c>
+      <c r="C83">
+        <v>0.68794</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B84">
+        <v>0.56140400000000001</v>
+      </c>
+      <c r="C84">
+        <v>0.68734499999999998</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B85">
+        <v>0.55555600000000005</v>
+      </c>
+      <c r="C85">
+        <v>0.68586599999999998</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B86">
+        <v>0.55172399999999999</v>
+      </c>
+      <c r="C86">
+        <v>0.68072699999999997</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B87">
+        <v>0.55172399999999999</v>
+      </c>
+      <c r="C87">
+        <v>0.68044700000000002</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B88">
+        <v>0.55072500000000002</v>
+      </c>
+      <c r="C88">
+        <v>0.67896800000000002</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B89">
+        <v>0.54901999999999995</v>
+      </c>
+      <c r="C89">
+        <v>0.67771199999999998</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B90">
+        <v>0.54545500000000002</v>
+      </c>
+      <c r="C90">
+        <v>0.67491599999999996</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B91">
+        <v>0.538462</v>
+      </c>
+      <c r="C91">
+        <v>0.67329300000000003</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B92">
+        <v>0.538462</v>
+      </c>
+      <c r="C92">
+        <v>0.67211699999999996</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B93">
+        <v>0.53333299999999995</v>
+      </c>
+      <c r="C93">
+        <v>0.67054800000000003</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B94">
+        <v>0.52727299999999999</v>
+      </c>
+      <c r="C94">
+        <v>0.66978199999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B95">
+        <v>0.52631600000000001</v>
+      </c>
+      <c r="C95">
+        <v>0.66835199999999995</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B96">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="C96">
+        <v>0.66535699999999998</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B97">
+        <v>0.52083299999999999</v>
+      </c>
+      <c r="C97">
+        <v>0.66179699999999997</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B98">
+        <v>0.519231</v>
+      </c>
+      <c r="C98">
+        <v>0.66029400000000005</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B99">
+        <v>0.50909099999999996</v>
+      </c>
+      <c r="C99">
+        <v>0.65986199999999995</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B100">
+        <v>0.5</v>
+      </c>
+      <c r="C100">
+        <v>0.65481100000000003</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B101">
+        <v>0.5</v>
+      </c>
+      <c r="C101">
+        <v>0.653922</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B102">
+        <v>0.5</v>
+      </c>
+      <c r="C102">
+        <v>0.65348799999999996</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B103">
+        <v>0.5</v>
+      </c>
+      <c r="C103">
+        <v>0.65185099999999996</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B104">
+        <v>0.5</v>
+      </c>
+      <c r="C104">
+        <v>0.65160799999999997</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B105">
+        <v>0.5</v>
+      </c>
+      <c r="C105">
+        <v>0.65155700000000005</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B106">
+        <v>0.5</v>
+      </c>
+      <c r="C106">
+        <v>0.65060499999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B107">
+        <v>0.5</v>
+      </c>
+      <c r="C107">
+        <v>0.64948399999999995</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B108">
+        <v>0.5</v>
+      </c>
+      <c r="C108">
+        <v>0.64905999999999997</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B109">
+        <v>0.5</v>
+      </c>
+      <c r="C109">
+        <v>0.64838499999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B110">
+        <v>0.5</v>
+      </c>
+      <c r="C110">
+        <v>0.64785499999999996</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B111">
+        <v>0.5</v>
+      </c>
+      <c r="C111">
+        <v>0.64659199999999994</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B112">
+        <v>0.5</v>
+      </c>
+      <c r="C112">
+        <v>0.64228399999999997</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B113">
+        <v>0.5</v>
+      </c>
+      <c r="C113">
+        <v>0.64219199999999999</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B114">
+        <v>0.5</v>
+      </c>
+      <c r="C114">
+        <v>0.63979399999999997</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B115">
+        <v>0.5</v>
+      </c>
+      <c r="C115">
+        <v>0.63978100000000004</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B116">
+        <v>0.5</v>
+      </c>
+      <c r="C116">
+        <v>0.63755099999999998</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B117">
+        <v>0.5</v>
+      </c>
+      <c r="C117">
+        <v>0.63734999999999997</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B118">
+        <v>0.5</v>
+      </c>
+      <c r="C118">
+        <v>0.633436</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B119">
+        <v>0.5</v>
+      </c>
+      <c r="C119">
+        <v>0.63202800000000003</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B120">
+        <v>0.5</v>
+      </c>
+      <c r="C120">
+        <v>0.63083900000000004</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B121">
+        <v>0.5</v>
+      </c>
+      <c r="C121">
+        <v>0.62825699999999995</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B122">
+        <v>0.5</v>
+      </c>
+      <c r="C122">
+        <v>0.62806899999999999</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B123">
+        <v>0.5</v>
+      </c>
+      <c r="C123">
+        <v>0.62722800000000001</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B124">
+        <v>0.5</v>
+      </c>
+      <c r="C124">
+        <v>0.62645399999999996</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B125">
+        <v>0.5</v>
+      </c>
+      <c r="C125">
+        <v>0.62440200000000001</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B126">
+        <v>0.5</v>
+      </c>
+      <c r="C126">
+        <v>0.62316300000000002</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B127">
+        <v>0.5</v>
+      </c>
+      <c r="C127">
+        <v>0.622224</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B128">
+        <v>0.5</v>
+      </c>
+      <c r="C128">
+        <v>0.62038499999999996</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B129">
+        <v>0.5</v>
+      </c>
+      <c r="C129">
+        <v>0.61987599999999998</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B130">
+        <v>0.5</v>
+      </c>
+      <c r="C130">
+        <v>0.61786700000000006</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B131">
+        <v>0.5</v>
+      </c>
+      <c r="C131">
+        <v>0.61357200000000001</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B132">
+        <v>0.5</v>
+      </c>
+      <c r="C132">
+        <v>0.61129800000000001</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B133">
+        <v>0.5</v>
+      </c>
+      <c r="C133">
+        <v>0.60928099999999996</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B134">
+        <v>0.5</v>
+      </c>
+      <c r="C134">
+        <v>0.60592999999999997</v>
+      </c>
+    </row>
+    <row r="135" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B135">
+        <v>0.5</v>
+      </c>
+      <c r="C135">
+        <v>0.60395299999999996</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B136">
+        <v>0.5</v>
+      </c>
+      <c r="C136">
+        <v>0.60386099999999998</v>
+      </c>
+    </row>
+    <row r="137" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B137">
+        <v>0.5</v>
+      </c>
+      <c r="C137">
+        <v>0.60386099999999998</v>
+      </c>
+    </row>
+    <row r="138" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B138">
+        <v>0.5</v>
+      </c>
+      <c r="C138">
+        <v>0.60376099999999999</v>
+      </c>
+    </row>
+    <row r="139" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B139">
+        <v>0.5</v>
+      </c>
+      <c r="C139">
+        <v>0.60201400000000005</v>
+      </c>
+    </row>
+    <row r="140" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B140">
+        <v>0.5</v>
+      </c>
+      <c r="C140">
+        <v>0.60174300000000003</v>
+      </c>
+    </row>
+    <row r="141" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B141">
+        <v>0.5</v>
+      </c>
+      <c r="C141">
+        <v>0.59945099999999996</v>
+      </c>
+    </row>
+    <row r="142" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B142">
+        <v>0.5</v>
+      </c>
+      <c r="C142">
+        <v>0.59903600000000001</v>
+      </c>
+    </row>
+    <row r="143" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B143">
+        <v>0.5</v>
+      </c>
+      <c r="C143">
+        <v>0.59808399999999995</v>
+      </c>
+    </row>
+    <row r="144" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B144">
+        <v>0.5</v>
+      </c>
+      <c r="C144">
+        <v>0.59795799999999999</v>
+      </c>
+    </row>
+    <row r="145" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B145">
+        <v>0.5</v>
+      </c>
+      <c r="C145">
+        <v>0.59771200000000002</v>
+      </c>
+    </row>
+    <row r="146" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B146">
+        <v>0.5</v>
+      </c>
+      <c r="C146">
+        <v>0.59771200000000002</v>
+      </c>
+    </row>
+    <row r="147" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B147">
+        <v>0.48936200000000002</v>
+      </c>
+      <c r="C147">
+        <v>0.597113</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B148">
+        <v>0.48888900000000002</v>
+      </c>
+      <c r="C148">
+        <v>0.59692500000000004</v>
+      </c>
+    </row>
+    <row r="149" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B149">
+        <v>0.48275899999999999</v>
+      </c>
+      <c r="C149">
+        <v>0.59685500000000002</v>
+      </c>
+    </row>
+    <row r="150" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B150">
+        <v>0.48148099999999999</v>
+      </c>
+      <c r="C150">
+        <v>0.59658699999999998</v>
+      </c>
+    </row>
+    <row r="151" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B151">
+        <v>0.48</v>
+      </c>
+      <c r="C151">
+        <v>0.59563100000000002</v>
+      </c>
+    </row>
+    <row r="152" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B152">
+        <v>0.48</v>
+      </c>
+      <c r="C152">
+        <v>0.59559099999999998</v>
+      </c>
+    </row>
+    <row r="153" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B153">
+        <v>0.47368399999999999</v>
+      </c>
+      <c r="C153">
+        <v>0.59462400000000004</v>
+      </c>
+    </row>
+    <row r="154" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B154">
+        <v>0.47058800000000001</v>
+      </c>
+      <c r="C154">
+        <v>0.59446699999999997</v>
+      </c>
+    </row>
+    <row r="155" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B155">
+        <v>0.466667</v>
+      </c>
+      <c r="C155">
+        <v>0.59386399999999995</v>
+      </c>
+    </row>
+    <row r="156" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B156">
+        <v>0.466667</v>
+      </c>
+      <c r="C156">
+        <v>0.59384400000000004</v>
+      </c>
+    </row>
+    <row r="157" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B157">
+        <v>0.46341500000000002</v>
+      </c>
+      <c r="C157">
+        <v>0.59331299999999998</v>
+      </c>
+    </row>
+    <row r="158" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B158">
+        <v>0.46341500000000002</v>
+      </c>
+      <c r="C158">
+        <v>0.591858</v>
+      </c>
+    </row>
+    <row r="159" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B159">
+        <v>0.461538</v>
+      </c>
+      <c r="C159">
+        <v>0.59144399999999997</v>
+      </c>
+    </row>
+    <row r="160" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B160">
+        <v>0.461538</v>
+      </c>
+      <c r="C160">
+        <v>0.59094000000000002</v>
+      </c>
+    </row>
+    <row r="161" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B161">
+        <v>0.45945900000000001</v>
+      </c>
+      <c r="C161">
+        <v>0.59052800000000005</v>
+      </c>
+    </row>
+    <row r="162" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B162">
+        <v>0.45833299999999999</v>
+      </c>
+      <c r="C162">
+        <v>0.59029299999999996</v>
+      </c>
+    </row>
+    <row r="163" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B163">
+        <v>0.45454499999999998</v>
+      </c>
+      <c r="C163">
+        <v>0.58969400000000005</v>
+      </c>
+    </row>
+    <row r="164" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B164">
+        <v>0.45454499999999998</v>
+      </c>
+      <c r="C164">
+        <v>0.58833999999999997</v>
+      </c>
+    </row>
+    <row r="165" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B165">
+        <v>0.45161299999999999</v>
+      </c>
+      <c r="C165">
+        <v>0.58702500000000002</v>
+      </c>
+    </row>
+    <row r="166" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B166">
+        <v>0.45097999999999999</v>
+      </c>
+      <c r="C166">
+        <v>0.58465699999999998</v>
+      </c>
+    </row>
+    <row r="167" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B167">
+        <v>0.45</v>
+      </c>
+      <c r="C167">
+        <v>0.58434799999999998</v>
+      </c>
+    </row>
+    <row r="168" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B168">
+        <v>0.44736799999999999</v>
+      </c>
+      <c r="C168">
+        <v>0.58427099999999998</v>
+      </c>
+    </row>
+    <row r="169" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B169">
+        <v>0.44444400000000001</v>
+      </c>
+      <c r="C169">
+        <v>0.58391499999999996</v>
+      </c>
+    </row>
+    <row r="170" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B170">
+        <v>0.44444400000000001</v>
+      </c>
+      <c r="C170">
+        <v>0.58316299999999999</v>
+      </c>
+    </row>
+    <row r="171" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B171">
+        <v>0.44444400000000001</v>
+      </c>
+      <c r="C171">
+        <v>0.581789</v>
+      </c>
+    </row>
+    <row r="172" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B172">
+        <v>0.44185999999999998</v>
+      </c>
+      <c r="C172">
+        <v>0.581789</v>
+      </c>
+    </row>
+    <row r="173" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B173">
+        <v>0.43589699999999998</v>
+      </c>
+      <c r="C173">
+        <v>0.581789</v>
+      </c>
+    </row>
+    <row r="174" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B174">
+        <v>0.42857099999999998</v>
+      </c>
+      <c r="C174">
+        <v>0.58152000000000004</v>
+      </c>
+    </row>
+    <row r="175" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B175">
+        <v>0.42857099999999998</v>
+      </c>
+      <c r="C175">
+        <v>0.57867100000000005</v>
+      </c>
+    </row>
+    <row r="176" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B176">
+        <v>0.42553200000000002</v>
+      </c>
+      <c r="C176">
+        <v>0.57777199999999995</v>
+      </c>
+    </row>
+    <row r="177" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B177">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="C177">
+        <v>0.57753600000000005</v>
+      </c>
+    </row>
+    <row r="178" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B178">
+        <v>0.42105300000000001</v>
+      </c>
+      <c r="C178">
+        <v>0.57602500000000001</v>
+      </c>
+    </row>
+    <row r="179" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B179">
+        <v>0.41935499999999998</v>
+      </c>
+      <c r="C179">
+        <v>0.57566700000000004</v>
+      </c>
+    </row>
+    <row r="180" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B180">
+        <v>0.41666700000000001</v>
+      </c>
+      <c r="C180">
+        <v>0.57545100000000005</v>
+      </c>
+    </row>
+    <row r="181" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B181">
+        <v>0.41666700000000001</v>
+      </c>
+      <c r="C181">
+        <v>0.57463699999999995</v>
+      </c>
+    </row>
+    <row r="182" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B182">
+        <v>0.41176499999999999</v>
+      </c>
+      <c r="C182">
+        <v>0.57381800000000005</v>
+      </c>
+    </row>
+    <row r="183" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B183">
+        <v>0.41176499999999999</v>
+      </c>
+      <c r="C183">
+        <v>0.57254400000000005</v>
+      </c>
+    </row>
+    <row r="184" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B184">
+        <v>0.41025600000000001</v>
+      </c>
+      <c r="C184">
+        <v>0.572241</v>
+      </c>
+    </row>
+    <row r="185" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B185">
+        <v>0.40625</v>
+      </c>
+      <c r="C185">
+        <v>0.57132499999999997</v>
+      </c>
+    </row>
+    <row r="186" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B186">
+        <v>0.4</v>
+      </c>
+      <c r="C186">
+        <v>0.57023999999999997</v>
+      </c>
+    </row>
+    <row r="187" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B187">
+        <v>0.4</v>
+      </c>
+      <c r="C187">
+        <v>0.56896400000000003</v>
+      </c>
+    </row>
+    <row r="188" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B188">
+        <v>0.4</v>
+      </c>
+      <c r="C188">
+        <v>0.56830700000000001</v>
+      </c>
+    </row>
+    <row r="189" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B189">
+        <v>0.4</v>
+      </c>
+      <c r="C189">
+        <v>0.56754400000000005</v>
+      </c>
+    </row>
+    <row r="190" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B190">
+        <v>0.4</v>
+      </c>
+      <c r="C190">
+        <v>0.56722600000000001</v>
+      </c>
+    </row>
+    <row r="191" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B191">
+        <v>0.4</v>
+      </c>
+      <c r="C191">
+        <v>0.56711100000000003</v>
+      </c>
+    </row>
+    <row r="192" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B192">
+        <v>0.4</v>
+      </c>
+      <c r="C192">
+        <v>0.56711100000000003</v>
+      </c>
+    </row>
+    <row r="193" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B193">
+        <v>0.4</v>
+      </c>
+      <c r="C193">
+        <v>0.56698599999999999</v>
+      </c>
+    </row>
+    <row r="194" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B194">
+        <v>0.4</v>
+      </c>
+      <c r="C194">
+        <v>0.56698599999999999</v>
+      </c>
+    </row>
+    <row r="195" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B195">
+        <v>0.4</v>
+      </c>
+      <c r="C195">
+        <v>0.56643200000000005</v>
+      </c>
+    </row>
+    <row r="196" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B196">
+        <v>0.4</v>
+      </c>
+      <c r="C196">
+        <v>0.56640699999999999</v>
+      </c>
+    </row>
+    <row r="197" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B197">
+        <v>0.38888899999999998</v>
+      </c>
+      <c r="C197">
+        <v>0.56494500000000003</v>
+      </c>
+    </row>
+    <row r="198" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B198">
+        <v>0.38461499999999998</v>
+      </c>
+      <c r="C198">
+        <v>0.56489999999999996</v>
+      </c>
+    </row>
+    <row r="199" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B199">
+        <v>0.38461499999999998</v>
+      </c>
+      <c r="C199">
+        <v>0.56457299999999999</v>
+      </c>
+    </row>
+    <row r="200" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B200">
+        <v>0.38095200000000001</v>
+      </c>
+      <c r="C200">
+        <v>0.56396999999999997</v>
+      </c>
+    </row>
+    <row r="201" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B201">
+        <v>0.375</v>
+      </c>
+      <c r="C201">
+        <v>0.56298199999999998</v>
+      </c>
+    </row>
+    <row r="202" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B202">
+        <v>0.375</v>
+      </c>
+      <c r="C202">
+        <v>0.56264700000000001</v>
+      </c>
+    </row>
+    <row r="203" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B203">
+        <v>0.375</v>
+      </c>
+      <c r="C203">
+        <v>0.56264700000000001</v>
+      </c>
+    </row>
+    <row r="204" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B204">
+        <v>0.375</v>
+      </c>
+      <c r="C204">
+        <v>0.56150199999999995</v>
+      </c>
+    </row>
+    <row r="205" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B205">
+        <v>0.375</v>
+      </c>
+      <c r="C205">
+        <v>0.56039600000000001</v>
+      </c>
+    </row>
+    <row r="206" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B206">
+        <v>0.368421</v>
+      </c>
+      <c r="C206">
+        <v>0.55955699999999997</v>
+      </c>
+    </row>
+    <row r="207" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B207">
+        <v>0.36363600000000001</v>
+      </c>
+      <c r="C207">
+        <v>0.55888000000000004</v>
+      </c>
+    </row>
+    <row r="208" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B208">
+        <v>0.36363600000000001</v>
+      </c>
+      <c r="C208">
+        <v>0.55769000000000002</v>
+      </c>
+    </row>
+    <row r="209" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B209">
+        <v>0.35897400000000002</v>
+      </c>
+      <c r="C209">
+        <v>0.55684900000000004</v>
+      </c>
+    </row>
+    <row r="210" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B210">
+        <v>0.35714299999999999</v>
+      </c>
+      <c r="C210">
+        <v>0.55659400000000003</v>
+      </c>
+    </row>
+    <row r="211" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B211">
+        <v>0.35</v>
+      </c>
+      <c r="C211">
+        <v>0.55637300000000001</v>
+      </c>
+    </row>
+    <row r="212" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B212">
+        <v>0.34375</v>
+      </c>
+      <c r="C212">
+        <v>0.55553799999999998</v>
+      </c>
+    </row>
+    <row r="213" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B213">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="C213">
+        <v>0.55432700000000001</v>
+      </c>
+    </row>
+    <row r="214" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B214">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="C214">
+        <v>0.55393199999999998</v>
+      </c>
+    </row>
+    <row r="215" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B215">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="C215">
+        <v>0.55364899999999995</v>
+      </c>
+    </row>
+    <row r="216" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B216">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="C216">
+        <v>0.55343100000000001</v>
+      </c>
+    </row>
+    <row r="217" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B217">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="C217">
+        <v>0.55164599999999997</v>
+      </c>
+    </row>
+    <row r="218" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B218">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="C218">
+        <v>0.55143799999999998</v>
+      </c>
+    </row>
+    <row r="219" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B219">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="C219">
+        <v>0.55143799999999998</v>
+      </c>
+    </row>
+    <row r="220" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B220">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="C220">
+        <v>0.55061700000000002</v>
+      </c>
+    </row>
+    <row r="221" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B221">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="C221">
+        <v>0.55051300000000003</v>
+      </c>
+    </row>
+    <row r="222" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B222">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="C222">
+        <v>0.54968700000000004</v>
+      </c>
+    </row>
+    <row r="223" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B223">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="C223">
+        <v>0.54946200000000001</v>
+      </c>
+    </row>
+    <row r="224" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B224">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="C224">
+        <v>0.54636700000000005</v>
+      </c>
+    </row>
+    <row r="225" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B225">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="C225">
+        <v>0.54361300000000001</v>
+      </c>
+    </row>
+    <row r="226" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B226">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="C226">
+        <v>0.54361300000000001</v>
+      </c>
+    </row>
+    <row r="227" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B227">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="C227">
+        <v>0.54240900000000003</v>
+      </c>
+    </row>
+    <row r="228" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B228">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="C228">
+        <v>0.54220900000000005</v>
+      </c>
+    </row>
+    <row r="229" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B229">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="C229">
+        <v>0.54199399999999998</v>
+      </c>
+    </row>
+    <row r="230" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B230">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="C230">
+        <v>0.54174800000000001</v>
+      </c>
+    </row>
+    <row r="231" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B231">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="C231">
+        <v>0.54152500000000003</v>
+      </c>
+    </row>
+    <row r="232" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B232">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="C232">
+        <v>0.54074100000000003</v>
+      </c>
+    </row>
+    <row r="233" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B233">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="C233">
+        <v>0.540713</v>
+      </c>
+    </row>
+    <row r="234" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B234">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="C234">
+        <v>0.53734999999999999</v>
+      </c>
+    </row>
+    <row r="235" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B235">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="C235">
+        <v>0.53678899999999996</v>
+      </c>
+    </row>
+    <row r="236" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B236">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="C236">
+        <v>0.53642699999999999</v>
+      </c>
+    </row>
+    <row r="237" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B237">
+        <v>0.31578899999999999</v>
+      </c>
+      <c r="C237">
+        <v>0.53458700000000003</v>
+      </c>
+    </row>
+    <row r="238" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B238">
+        <v>0.31428600000000001</v>
+      </c>
+      <c r="C238">
+        <v>0.533914</v>
+      </c>
+    </row>
+    <row r="239" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B239">
+        <v>0.3125</v>
+      </c>
+      <c r="C239">
+        <v>0.53389799999999998</v>
+      </c>
+    </row>
+    <row r="240" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B240">
+        <v>0.31034499999999998</v>
+      </c>
+      <c r="C240">
+        <v>0.53329300000000002</v>
+      </c>
+    </row>
+    <row r="241" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B241">
+        <v>0.30769200000000002</v>
+      </c>
+      <c r="C241">
+        <v>0.53237100000000004</v>
+      </c>
+    </row>
+    <row r="242" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B242">
+        <v>0.30769200000000002</v>
+      </c>
+      <c r="C242">
+        <v>0.532308</v>
+      </c>
+    </row>
+    <row r="243" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B243">
+        <v>0.30769200000000002</v>
+      </c>
+      <c r="C243">
+        <v>0.52938600000000002</v>
+      </c>
+    </row>
+    <row r="244" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B244">
+        <v>0.30769200000000002</v>
+      </c>
+      <c r="C244">
+        <v>0.52929400000000004</v>
+      </c>
+    </row>
+    <row r="245" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B245">
+        <v>0.3</v>
+      </c>
+      <c r="C245">
+        <v>0.52921600000000002</v>
+      </c>
+    </row>
+    <row r="246" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B246">
+        <v>0.3</v>
+      </c>
+      <c r="C246">
+        <v>0.52898599999999996</v>
+      </c>
+    </row>
+    <row r="247" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B247">
+        <v>0.3</v>
+      </c>
+      <c r="C247">
+        <v>0.52876500000000004</v>
+      </c>
+    </row>
+    <row r="248" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B248">
+        <v>0.28571400000000002</v>
+      </c>
+      <c r="C248">
+        <v>0.52811600000000003</v>
+      </c>
+    </row>
+    <row r="249" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B249">
+        <v>0.28571400000000002</v>
+      </c>
+      <c r="C249">
+        <v>0.52808999999999995</v>
+      </c>
+    </row>
+    <row r="250" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B250">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C250">
+        <v>0.527972</v>
+      </c>
+    </row>
+    <row r="251" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B251">
+        <v>0.27777800000000002</v>
+      </c>
+      <c r="C251">
+        <v>0.527173</v>
+      </c>
+    </row>
+    <row r="252" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B252">
+        <v>0.272727</v>
+      </c>
+      <c r="C252">
+        <v>0.527173</v>
+      </c>
+    </row>
+    <row r="253" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B253">
+        <v>0.25</v>
+      </c>
+      <c r="C253">
+        <v>0.52644199999999997</v>
+      </c>
+    </row>
+    <row r="254" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B254">
+        <v>0.25</v>
+      </c>
+      <c r="C254">
+        <v>0.52592399999999995</v>
+      </c>
+    </row>
+    <row r="255" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B255">
+        <v>0.25</v>
+      </c>
+      <c r="C255">
+        <v>0.52584500000000001</v>
+      </c>
+    </row>
+    <row r="256" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B256">
+        <v>0.25</v>
+      </c>
+      <c r="C256">
+        <v>0.52534199999999998</v>
+      </c>
+    </row>
+    <row r="257" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B257">
+        <v>0.25</v>
+      </c>
+      <c r="C257">
+        <v>0.52341300000000002</v>
+      </c>
+    </row>
+    <row r="258" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B258">
+        <v>0.25</v>
+      </c>
+      <c r="C258">
+        <v>0.52308200000000005</v>
+      </c>
+    </row>
+    <row r="259" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B259">
+        <v>0.25</v>
+      </c>
+      <c r="C259">
+        <v>0.52263000000000004</v>
+      </c>
+    </row>
+    <row r="260" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B260">
+        <v>0.25</v>
+      </c>
+      <c r="C260">
+        <v>0.52214400000000005</v>
+      </c>
+    </row>
+    <row r="261" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B261">
+        <v>0.25</v>
+      </c>
+      <c r="C261">
+        <v>0.52163300000000001</v>
+      </c>
+    </row>
+    <row r="262" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B262">
+        <v>0.25</v>
+      </c>
+      <c r="C262">
+        <v>0.52152399999999999</v>
+      </c>
+    </row>
+    <row r="263" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B263">
+        <v>0.25</v>
+      </c>
+      <c r="C263">
+        <v>0.521069</v>
+      </c>
+    </row>
+    <row r="264" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B264">
+        <v>0.25</v>
+      </c>
+      <c r="C264">
+        <v>0.52053499999999997</v>
+      </c>
+    </row>
+    <row r="265" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B265">
+        <v>0.25</v>
+      </c>
+      <c r="C265">
+        <v>0.52013200000000004</v>
+      </c>
+    </row>
+    <row r="266" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B266">
+        <v>0.25</v>
+      </c>
+      <c r="C266">
+        <v>0.52006300000000005</v>
+      </c>
+    </row>
+    <row r="267" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B267">
+        <v>0.25</v>
+      </c>
+      <c r="C267">
+        <v>0.51769600000000005</v>
+      </c>
+    </row>
+    <row r="268" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B268">
+        <v>0.235294</v>
+      </c>
+      <c r="C268">
+        <v>0.51614300000000002</v>
+      </c>
+    </row>
+    <row r="269" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B269">
+        <v>0.230769</v>
+      </c>
+      <c r="C269">
+        <v>0.51304899999999998</v>
+      </c>
+    </row>
+    <row r="270" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B270">
+        <v>0.230769</v>
+      </c>
+      <c r="C270">
+        <v>0.51271100000000003</v>
+      </c>
+    </row>
+    <row r="271" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B271">
+        <v>0.230769</v>
+      </c>
+      <c r="C271">
+        <v>0.51210199999999995</v>
+      </c>
+    </row>
+    <row r="272" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B272">
+        <v>0.214286</v>
+      </c>
+      <c r="C272">
+        <v>0.51141800000000004</v>
+      </c>
+    </row>
+    <row r="273" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B273">
+        <v>0.20833299999999999</v>
+      </c>
+      <c r="C273">
+        <v>0.51046999999999998</v>
+      </c>
+    </row>
+    <row r="274" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B274">
+        <v>0.2</v>
+      </c>
+      <c r="C274">
+        <v>0.50999000000000005</v>
+      </c>
+    </row>
+    <row r="275" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B275">
+        <v>0.2</v>
+      </c>
+      <c r="C275">
+        <v>0.509857</v>
+      </c>
+    </row>
+    <row r="276" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B276">
+        <v>0.2</v>
+      </c>
+      <c r="C276">
+        <v>0.50881399999999999</v>
+      </c>
+    </row>
+    <row r="277" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B277">
+        <v>0.18181800000000001</v>
+      </c>
+      <c r="C277">
+        <v>0.50881399999999999</v>
+      </c>
+    </row>
+    <row r="278" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B278">
+        <v>0.16666700000000001</v>
+      </c>
+      <c r="C278">
+        <v>0.50754299999999997</v>
+      </c>
+    </row>
+    <row r="279" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B279">
+        <v>0.16666700000000001</v>
+      </c>
+      <c r="C279">
+        <v>0.50443400000000005</v>
+      </c>
+    </row>
+    <row r="280" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B280">
+        <v>0.16666700000000001</v>
+      </c>
+      <c r="C280">
+        <v>0.50106399999999995</v>
+      </c>
+    </row>
+    <row r="281" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B281">
+        <v>0.16666700000000001</v>
+      </c>
+      <c r="C281">
+        <v>0.500834</v>
+      </c>
+    </row>
+    <row r="282" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B282">
+        <v>0.16666700000000001</v>
+      </c>
+      <c r="C282">
+        <v>0.50035499999999999</v>
+      </c>
+    </row>
+    <row r="283" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B283">
+        <v>0.15789500000000001</v>
+      </c>
+      <c r="C283">
+        <v>0.50008699999999995</v>
+      </c>
+    </row>
+    <row r="284" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B284">
+        <v>0.14285700000000001</v>
+      </c>
+      <c r="C284">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="285" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B285">
+        <v>0.14285700000000001</v>
+      </c>
+      <c r="C285">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="286" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B286">
+        <v>0.14285700000000001</v>
+      </c>
+      <c r="C286">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="287" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B287">
+        <v>0.14285700000000001</v>
+      </c>
+      <c r="C287">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="288" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B288">
+        <v>0.14285700000000001</v>
+      </c>
+      <c r="C288">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="289" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B289">
+        <v>0</v>
+      </c>
+      <c r="C289">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="290" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B290">
+        <v>0</v>
+      </c>
+      <c r="C290">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="291" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B291">
+        <v>0</v>
+      </c>
+      <c r="C291">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="292" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B292">
+        <v>0</v>
+      </c>
+      <c r="C292">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="293" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B293">
+        <v>0</v>
+      </c>
+      <c r="C293">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="294" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B294">
+        <v>0</v>
+      </c>
+      <c r="C294">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="295" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B295">
+        <v>0</v>
+      </c>
+      <c r="C295">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="296" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B296">
+        <v>0</v>
+      </c>
+      <c r="C296">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="297" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B297">
+        <v>0</v>
+      </c>
+      <c r="C297">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="298" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B298">
+        <v>0</v>
+      </c>
+      <c r="C298">
+        <v>0.499913</v>
+      </c>
+    </row>
+    <row r="299" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B299">
+        <v>0</v>
+      </c>
+      <c r="C299">
+        <v>0.49973800000000002</v>
+      </c>
+    </row>
+    <row r="300" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B300">
+        <v>0</v>
+      </c>
+      <c r="C300">
+        <v>0.49962600000000001</v>
+      </c>
+    </row>
+    <row r="301" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B301">
+        <v>0</v>
+      </c>
+      <c r="C301">
+        <v>0.49956099999999998</v>
+      </c>
+    </row>
+    <row r="302" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B302">
+        <v>0</v>
+      </c>
+      <c r="C302">
+        <v>0.49765500000000001</v>
+      </c>
+    </row>
+    <row r="303" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B303">
+        <v>0</v>
+      </c>
+      <c r="C303">
+        <v>0.496784</v>
+      </c>
+    </row>
+    <row r="304" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B304">
+        <v>0</v>
+      </c>
+      <c r="C304">
+        <v>0.49567800000000001</v>
+      </c>
+    </row>
+    <row r="305" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B305">
+        <v>0</v>
+      </c>
+      <c r="C305">
+        <v>0.495062</v>
+      </c>
+    </row>
+    <row r="306" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B306">
+        <v>0</v>
+      </c>
+      <c r="C306">
+        <v>0.49359599999999998</v>
+      </c>
+    </row>
+    <row r="307" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B307">
+        <v>0</v>
+      </c>
+      <c r="C307">
+        <v>0.49296499999999999</v>
+      </c>
+    </row>
+    <row r="308" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B308">
+        <v>0</v>
+      </c>
+      <c r="C308">
+        <v>0.49275200000000002</v>
+      </c>
+    </row>
+    <row r="309" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B309">
+        <v>0</v>
+      </c>
+      <c r="C309">
+        <v>0.49044100000000002</v>
+      </c>
+    </row>
+    <row r="310" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B310">
+        <v>0</v>
+      </c>
+      <c r="C310">
+        <v>0.48885200000000001</v>
+      </c>
+    </row>
+    <row r="311" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B311">
+        <v>0</v>
+      </c>
+      <c r="C311">
+        <v>0.48703400000000002</v>
+      </c>
+    </row>
+    <row r="312" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B312">
+        <v>0</v>
+      </c>
+      <c r="C312">
+        <v>0.48657400000000001</v>
+      </c>
+    </row>
+    <row r="313" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B313">
+        <v>0</v>
+      </c>
+      <c r="C313">
+        <v>0.48599100000000001</v>
+      </c>
+    </row>
+    <row r="314" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B314">
+        <v>0</v>
+      </c>
+      <c r="C314">
+        <v>0.48518699999999998</v>
+      </c>
+    </row>
+    <row r="315" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B315">
+        <v>0</v>
+      </c>
+      <c r="C315">
+        <v>0.48280299999999998</v>
+      </c>
+    </row>
+    <row r="316" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B316">
+        <v>0</v>
+      </c>
+      <c r="C316">
+        <v>0.47934900000000003</v>
+      </c>
+    </row>
+    <row r="317" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B317">
+        <v>0</v>
+      </c>
+      <c r="C317">
+        <v>0.47825600000000001</v>
+      </c>
+    </row>
+    <row r="318" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B318">
+        <v>0</v>
+      </c>
+      <c r="C318">
+        <v>0.47825600000000001</v>
+      </c>
+    </row>
+    <row r="319" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B319">
+        <v>0</v>
+      </c>
+      <c r="C319">
+        <v>0.47825600000000001</v>
+      </c>
+    </row>
+    <row r="320" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B320">
+        <v>0</v>
+      </c>
+      <c r="C320">
+        <v>0.47428799999999999</v>
+      </c>
+    </row>
+    <row r="321" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B321">
+        <v>0</v>
+      </c>
+      <c r="C321">
+        <v>0.47156300000000001</v>
+      </c>
+    </row>
+    <row r="322" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B322">
+        <v>0</v>
+      </c>
+      <c r="C322">
+        <v>0.47132200000000002</v>
+      </c>
+    </row>
+    <row r="323" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B323">
+        <v>0</v>
+      </c>
+      <c r="C323">
+        <v>0.47122700000000001</v>
+      </c>
+    </row>
+    <row r="324" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B324">
+        <v>0</v>
+      </c>
+      <c r="C324">
+        <v>0.47106100000000001</v>
+      </c>
+    </row>
+    <row r="325" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B325">
+        <v>0</v>
+      </c>
+      <c r="C325">
+        <v>0.47056999999999999</v>
+      </c>
+    </row>
+    <row r="326" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B326">
+        <v>0</v>
+      </c>
+      <c r="C326">
+        <v>0.46895199999999998</v>
+      </c>
+    </row>
+    <row r="327" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B327">
+        <v>0</v>
+      </c>
+      <c r="C327">
+        <v>0.46712700000000001</v>
+      </c>
+    </row>
+    <row r="328" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B328">
+        <v>0</v>
+      </c>
+      <c r="C328">
+        <v>0.46666600000000003</v>
+      </c>
+    </row>
+    <row r="329" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B329">
+        <v>0</v>
+      </c>
+      <c r="C329">
+        <v>0.466028</v>
+      </c>
+    </row>
+    <row r="330" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B330">
+        <v>0</v>
+      </c>
+      <c r="C330">
+        <v>0.46236699999999997</v>
+      </c>
+    </row>
+    <row r="331" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B331">
+        <v>0</v>
+      </c>
+      <c r="C331">
+        <v>0.46135399999999999</v>
+      </c>
+    </row>
+    <row r="332" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B332">
+        <v>0</v>
+      </c>
+      <c r="C332">
+        <v>0.45873000000000003</v>
+      </c>
+    </row>
+    <row r="333" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B333">
+        <v>0</v>
+      </c>
+      <c r="C333">
+        <v>0.45777400000000001</v>
+      </c>
+    </row>
+    <row r="334" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B334">
+        <v>0</v>
+      </c>
+      <c r="C334">
+        <v>0.45754899999999998</v>
+      </c>
+    </row>
+    <row r="335" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B335">
+        <v>0</v>
+      </c>
+      <c r="C335">
+        <v>0.45669399999999999</v>
+      </c>
+    </row>
+    <row r="336" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B336">
+        <v>0</v>
+      </c>
+      <c r="C336">
+        <v>0.456208</v>
+      </c>
+    </row>
+    <row r="337" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B337">
+        <v>0</v>
+      </c>
+      <c r="C337">
+        <v>0.45155200000000001</v>
+      </c>
+    </row>
+    <row r="338" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B338">
+        <v>0</v>
+      </c>
+      <c r="C338">
+        <v>0.45153700000000002</v>
+      </c>
+    </row>
+    <row r="339" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B339">
+        <v>0</v>
+      </c>
+      <c r="C339">
+        <v>0.45131700000000002</v>
+      </c>
+    </row>
+    <row r="340" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B340">
+        <v>0</v>
+      </c>
+      <c r="C340">
+        <v>0.45004100000000002</v>
+      </c>
+    </row>
+    <row r="341" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B341">
+        <v>0</v>
+      </c>
+      <c r="C341">
+        <v>0.44603199999999998</v>
+      </c>
+    </row>
+    <row r="342" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B342">
+        <v>0</v>
+      </c>
+      <c r="C342">
+        <v>0.44552700000000001</v>
+      </c>
+    </row>
+    <row r="343" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B343">
+        <v>0</v>
+      </c>
+      <c r="C343">
+        <v>0.44283400000000001</v>
+      </c>
+    </row>
+    <row r="344" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B344">
+        <v>0</v>
+      </c>
+      <c r="C344">
+        <v>0.44228899999999999</v>
+      </c>
+    </row>
+    <row r="345" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B345">
+        <v>0</v>
+      </c>
+      <c r="C345">
+        <v>0.44215300000000002</v>
+      </c>
+    </row>
+    <row r="346" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B346">
+        <v>0</v>
+      </c>
+      <c r="C346">
+        <v>0.442112</v>
+      </c>
+    </row>
+    <row r="347" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B347">
+        <v>0</v>
+      </c>
+      <c r="C347">
+        <v>0.43838199999999999</v>
+      </c>
+    </row>
+    <row r="348" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B348">
+        <v>0</v>
+      </c>
+      <c r="C348">
+        <v>0.43804599999999999</v>
+      </c>
+    </row>
+    <row r="349" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B349">
+        <v>0</v>
+      </c>
+      <c r="C349">
+        <v>0.43631300000000001</v>
+      </c>
+    </row>
+    <row r="350" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B350">
+        <v>0</v>
+      </c>
+      <c r="C350">
+        <v>0.43476900000000002</v>
+      </c>
+    </row>
+    <row r="351" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B351">
+        <v>0</v>
+      </c>
+      <c r="C351">
+        <v>0.43473400000000001</v>
+      </c>
+    </row>
+    <row r="352" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B352">
+        <v>0</v>
+      </c>
+      <c r="C352">
+        <v>0.43473400000000001</v>
+      </c>
+    </row>
+    <row r="353" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B353">
+        <v>0</v>
+      </c>
+      <c r="C353">
+        <v>0.434114</v>
+      </c>
+    </row>
+    <row r="354" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B354">
+        <v>0</v>
+      </c>
+      <c r="C354">
+        <v>0.42962899999999998</v>
+      </c>
+    </row>
+    <row r="355" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B355">
+        <v>0</v>
+      </c>
+      <c r="C355">
+        <v>0.428033</v>
+      </c>
+    </row>
+    <row r="356" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B356">
+        <v>0</v>
+      </c>
+      <c r="C356">
+        <v>0.42674800000000002</v>
+      </c>
+    </row>
+    <row r="357" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B357">
+        <v>0</v>
+      </c>
+      <c r="C357">
+        <v>0.42335099999999998</v>
+      </c>
+    </row>
+    <row r="358" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B358">
+        <v>0</v>
+      </c>
+      <c r="C358">
+        <v>0.42268</v>
+      </c>
+    </row>
+    <row r="359" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B359">
+        <v>0</v>
+      </c>
+      <c r="C359">
+        <v>0.41561100000000001</v>
+      </c>
+    </row>
+    <row r="360" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B360">
+        <v>0</v>
+      </c>
+      <c r="C360">
+        <v>0.41434100000000001</v>
+      </c>
+    </row>
+    <row r="361" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B361">
+        <v>0</v>
+      </c>
+      <c r="C361">
+        <v>0.40688600000000003</v>
+      </c>
+    </row>
+    <row r="362" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B362">
+        <v>0</v>
+      </c>
+      <c r="C362">
+        <v>0.40444200000000002</v>
+      </c>
+    </row>
+    <row r="363" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B363">
+        <v>0</v>
+      </c>
+      <c r="C363">
+        <v>0.404333</v>
+      </c>
+    </row>
+    <row r="364" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B364">
+        <v>0</v>
+      </c>
+      <c r="C364">
+        <v>0.40361200000000003</v>
+      </c>
+    </row>
+    <row r="365" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B365">
+        <v>0</v>
+      </c>
+      <c r="C365">
+        <v>0.403501</v>
+      </c>
+    </row>
+    <row r="366" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B366">
+        <v>0</v>
+      </c>
+      <c r="C366">
+        <v>0.40313199999999999</v>
+      </c>
+    </row>
+    <row r="367" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B367">
+        <v>0</v>
+      </c>
+      <c r="C367">
+        <v>0.40212300000000001</v>
+      </c>
+    </row>
+    <row r="368" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B368">
+        <v>0</v>
+      </c>
+      <c r="C368">
+        <v>0.40076200000000001</v>
+      </c>
+    </row>
+    <row r="369" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B369">
+        <v>0</v>
+      </c>
+      <c r="C369">
+        <v>0.39999699999999999</v>
+      </c>
+    </row>
+    <row r="370" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B370">
+        <v>0</v>
+      </c>
+      <c r="C370">
+        <v>0.399057</v>
+      </c>
+    </row>
+    <row r="371" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B371">
+        <v>0</v>
+      </c>
+      <c r="C371">
+        <v>0.39604400000000001</v>
+      </c>
+    </row>
+    <row r="372" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B372">
+        <v>0</v>
+      </c>
+      <c r="C372">
+        <v>0.39594099999999999</v>
+      </c>
+    </row>
+    <row r="373" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B373">
+        <v>0</v>
+      </c>
+      <c r="C373">
+        <v>0.39221800000000001</v>
+      </c>
+    </row>
+    <row r="374" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B374">
+        <v>0</v>
+      </c>
+      <c r="C374">
+        <v>0.39040200000000003</v>
+      </c>
+    </row>
+    <row r="375" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B375">
+        <v>0</v>
+      </c>
+      <c r="C375">
+        <v>0.386021</v>
+      </c>
+    </row>
+    <row r="376" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B376">
+        <v>0</v>
+      </c>
+      <c r="C376">
+        <v>0.37713999999999998</v>
+      </c>
+    </row>
+    <row r="377" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B377">
+        <v>0</v>
+      </c>
+      <c r="C377">
+        <v>0.37699100000000002</v>
+      </c>
+    </row>
+    <row r="378" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B378">
+        <v>0</v>
+      </c>
+      <c r="C378">
+        <v>0.37584499999999998</v>
+      </c>
+    </row>
+    <row r="379" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B379">
+        <v>0</v>
+      </c>
+      <c r="C379">
+        <v>0.37551800000000002</v>
+      </c>
+    </row>
+    <row r="380" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B380">
+        <v>0</v>
+      </c>
+      <c r="C380">
+        <v>0.37243900000000002</v>
+      </c>
+    </row>
+    <row r="381" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B381">
+        <v>0</v>
+      </c>
+      <c r="C381">
+        <v>0.36870700000000001</v>
+      </c>
+    </row>
+    <row r="382" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B382">
+        <v>0</v>
+      </c>
+      <c r="C382">
+        <v>0.36839</v>
+      </c>
+    </row>
+    <row r="383" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B383">
+        <v>0</v>
+      </c>
+      <c r="C383">
+        <v>0.36162499999999997</v>
+      </c>
+    </row>
+    <row r="384" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B384">
+        <v>0</v>
+      </c>
+      <c r="C384">
+        <v>0.35957499999999998</v>
+      </c>
+    </row>
+    <row r="385" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B385">
+        <v>0</v>
+      </c>
+      <c r="C385">
+        <v>0.35722199999999998</v>
+      </c>
+    </row>
+    <row r="386" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B386">
+        <v>0</v>
+      </c>
+      <c r="C386">
+        <v>0.35639599999999999</v>
+      </c>
+    </row>
+    <row r="387" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B387">
+        <v>0</v>
+      </c>
+      <c r="C387">
+        <v>0.35012399999999999</v>
+      </c>
+    </row>
+    <row r="388" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B388">
+        <v>0</v>
+      </c>
+      <c r="C388">
+        <v>0.34200700000000001</v>
+      </c>
+    </row>
+    <row r="389" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B389">
+        <v>0</v>
+      </c>
+      <c r="C389">
+        <v>0.33763700000000002</v>
+      </c>
+    </row>
+    <row r="390" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B390">
+        <v>0</v>
+      </c>
+      <c r="C390">
+        <v>0.33641799999999999</v>
+      </c>
+    </row>
+    <row r="391" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B391">
+        <v>0</v>
+      </c>
+      <c r="C391">
+        <v>0.334285</v>
+      </c>
+    </row>
+    <row r="392" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B392">
+        <v>0</v>
+      </c>
+      <c r="C392">
+        <v>0.33360800000000002</v>
+      </c>
+    </row>
+    <row r="393" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B393">
+        <v>0</v>
+      </c>
+      <c r="C393">
+        <v>0.33140199999999997</v>
+      </c>
+    </row>
+    <row r="394" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B394">
+        <v>0</v>
+      </c>
+      <c r="C394">
+        <v>0.33033499999999999</v>
+      </c>
+    </row>
+    <row r="395" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B395">
+        <v>0</v>
+      </c>
+      <c r="C395">
+        <v>0.32827699999999999</v>
+      </c>
+    </row>
+    <row r="396" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B396">
+        <v>0</v>
+      </c>
+      <c r="C396">
+        <v>0.327463</v>
+      </c>
+    </row>
+    <row r="397" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B397">
+        <v>0</v>
+      </c>
+      <c r="C397">
+        <v>0.32645800000000003</v>
+      </c>
+    </row>
+    <row r="398" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B398">
+        <v>0</v>
+      </c>
+      <c r="C398">
+        <v>0.32488899999999998</v>
+      </c>
+    </row>
+    <row r="399" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B399">
+        <v>0</v>
+      </c>
+      <c r="C399">
+        <v>0.31993100000000002</v>
+      </c>
+    </row>
+    <row r="400" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B400">
+        <v>0</v>
+      </c>
+      <c r="C400">
+        <v>0.31968999999999997</v>
+      </c>
+    </row>
+    <row r="401" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B401">
+        <v>0</v>
+      </c>
+      <c r="C401">
+        <v>0.31810500000000003</v>
+      </c>
+    </row>
+    <row r="402" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B402">
+        <v>0</v>
+      </c>
+      <c r="C402">
+        <v>0.31755299999999997</v>
+      </c>
+    </row>
+    <row r="403" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B403">
+        <v>0</v>
+      </c>
+      <c r="C403">
+        <v>0.31562600000000002</v>
+      </c>
+    </row>
+    <row r="404" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B404">
+        <v>0</v>
+      </c>
+      <c r="C404">
+        <v>0.31172499999999997</v>
+      </c>
+    </row>
+    <row r="405" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B405">
+        <v>0</v>
+      </c>
+      <c r="C405">
+        <v>0.30999300000000002</v>
+      </c>
+    </row>
+    <row r="406" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B406">
+        <v>0</v>
+      </c>
+      <c r="C406">
+        <v>0.306923</v>
+      </c>
+    </row>
+    <row r="407" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B407">
+        <v>0</v>
+      </c>
+      <c r="C407">
+        <v>0.304203</v>
+      </c>
+    </row>
+    <row r="408" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B408">
+        <v>0</v>
+      </c>
+      <c r="C408">
+        <v>0.29804700000000001</v>
+      </c>
+    </row>
+    <row r="409" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B409">
+        <v>0</v>
+      </c>
+      <c r="C409">
+        <v>0.29798000000000002</v>
+      </c>
+    </row>
+    <row r="410" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B410">
+        <v>0</v>
+      </c>
+      <c r="C410">
+        <v>0.29410700000000001</v>
+      </c>
+    </row>
+    <row r="411" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B411">
+        <v>0</v>
+      </c>
+      <c r="C411">
+        <v>0.28961799999999999</v>
+      </c>
+    </row>
+    <row r="412" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B412">
+        <v>0</v>
+      </c>
+      <c r="C412">
+        <v>0.28734999999999999</v>
+      </c>
+    </row>
+    <row r="413" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B413">
+        <v>0</v>
+      </c>
+      <c r="C413">
+        <v>0.28422999999999998</v>
+      </c>
+    </row>
+    <row r="414" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B414">
+        <v>0</v>
+      </c>
+      <c r="C414">
+        <v>0.28409899999999999</v>
+      </c>
+    </row>
+    <row r="415" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B415">
+        <v>0</v>
+      </c>
+      <c r="C415">
+        <v>0.28327400000000003</v>
+      </c>
+    </row>
+    <row r="416" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B416">
+        <v>0</v>
+      </c>
+      <c r="C416">
+        <v>0.282941</v>
+      </c>
+    </row>
+    <row r="417" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B417">
+        <v>0</v>
+      </c>
+      <c r="C417">
+        <v>0.28153299999999998</v>
+      </c>
+    </row>
+    <row r="418" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B418">
+        <v>0</v>
+      </c>
+      <c r="C418">
+        <v>0.280499</v>
+      </c>
+    </row>
+    <row r="419" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B419">
+        <v>0</v>
+      </c>
+      <c r="C419">
+        <v>0.277584</v>
+      </c>
+    </row>
+    <row r="420" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B420">
+        <v>0</v>
+      </c>
+      <c r="C420">
+        <v>0.26804099999999997</v>
+      </c>
+    </row>
+    <row r="421" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B421">
+        <v>0</v>
+      </c>
+      <c r="C421">
+        <v>0.265656</v>
+      </c>
+    </row>
+    <row r="422" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B422">
+        <v>0</v>
+      </c>
+      <c r="C422">
+        <v>0.258077</v>
+      </c>
+    </row>
+    <row r="423" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B423">
+        <v>0</v>
+      </c>
+      <c r="C423">
+        <v>0.25748500000000002</v>
+      </c>
+    </row>
+    <row r="424" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B424">
+        <v>0</v>
+      </c>
+      <c r="C424">
+        <v>0.23708599999999999</v>
+      </c>
+    </row>
+    <row r="425" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B425">
+        <v>0</v>
+      </c>
+      <c r="C425">
+        <v>0.23461199999999999</v>
+      </c>
+    </row>
+    <row r="426" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B426">
+        <v>0</v>
+      </c>
+      <c r="C426">
+        <v>0.23455799999999999</v>
+      </c>
+    </row>
+    <row r="427" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B427">
+        <v>0</v>
+      </c>
+      <c r="C427">
+        <v>0.23274500000000001</v>
+      </c>
+    </row>
+    <row r="428" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B428">
+        <v>0</v>
+      </c>
+      <c r="C428">
+        <v>0.206368</v>
+      </c>
+    </row>
+    <row r="429" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B429">
+        <v>0</v>
+      </c>
+      <c r="C429">
+        <v>0.19293399999999999</v>
+      </c>
+    </row>
+    <row r="430" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B430">
+        <v>0</v>
+      </c>
+      <c r="C430">
+        <v>0.19018199999999999</v>
+      </c>
+    </row>
+    <row r="431" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B431">
+        <v>0</v>
+      </c>
+      <c r="C431">
+        <v>0.15806400000000001</v>
+      </c>
     </row>
   </sheetData>
+  <sortState ref="C2:C431">
+    <sortCondition descending="1" ref="C2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>